--- a/Prop book.xlsx
+++ b/Prop book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dragoncapitalvn-my.sharepoint.com/personal/ducle_dragoncapital_com/Documents/Profiles/Desktop/Models/Team broker/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dragoncapitalvn-my.sharepoint.com/personal/thaodien_dragoncapital_com/Documents/Documents/GitHub/Project-broker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C88FE01E-7292-4AD4-878C-AADAD5A89218}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34CC44FA-3C2F-4BE6-B1D9-136CE2546304}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="39">
   <si>
     <t>Broker</t>
   </si>
@@ -126,6 +126,33 @@
   </si>
   <si>
     <t>TCD</t>
+  </si>
+  <si>
+    <t>FCN</t>
+  </si>
+  <si>
+    <t>TTC</t>
+  </si>
+  <si>
+    <t>PLC</t>
+  </si>
+  <si>
+    <t>NVL</t>
+  </si>
+  <si>
+    <t>HAH</t>
+  </si>
+  <si>
+    <t>GEE</t>
+  </si>
+  <si>
+    <t>BSR</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>GEI</t>
   </si>
 </sst>
 </file>
@@ -444,19 +471,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -487,7 +514,7 @@
         <v>598.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -501,7 +528,7 @@
         <v>81.7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -515,7 +542,7 @@
         <v>1945.2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -526,7 +553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -540,7 +567,7 @@
         <v>180.69</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -554,7 +581,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -568,7 +595,7 @@
         <v>232.999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -582,7 +609,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -596,7 +623,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -610,7 +637,7 @@
         <v>796.99</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -621,7 +648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -635,7 +662,7 @@
         <v>1882.8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -649,7 +676,7 @@
         <v>11.73</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -663,7 +690,7 @@
         <v>297.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -677,7 +704,7 @@
         <v>139.4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -691,7 +718,7 @@
         <v>803.12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -705,7 +732,7 @@
         <v>837.54</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -719,7 +746,7 @@
         <v>1673.2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -733,7 +760,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -744,7 +771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -758,7 +785,7 @@
         <v>2117.6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -769,7 +796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -783,7 +810,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -797,7 +824,7 @@
         <v>167.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -811,7 +838,7 @@
         <v>695.36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -825,7 +852,7 @@
         <v>772.4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -839,7 +866,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -853,7 +880,7 @@
         <v>172.64</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -867,7 +894,7 @@
         <v>282.2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -881,7 +908,7 @@
         <v>7.84</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -895,7 +922,7 @@
         <v>64.372</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -909,7 +936,7 @@
         <v>105.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -923,7 +950,7 @@
         <v>87.8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -937,7 +964,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -951,7 +978,7 @@
         <v>287.54000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -965,7 +992,7 @@
         <v>177.85</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -979,7 +1006,7 @@
         <v>426.74</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -993,7 +1020,7 @@
         <v>252.98500000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1007,7 +1034,7 @@
         <v>98.06</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -1021,7 +1048,7 @@
         <v>4143.6000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -1035,7 +1062,7 @@
         <v>767.3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -1047,6 +1074,342 @@
       </c>
       <c r="E43" s="1">
         <v>26.64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="1">
+        <v>189.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="1">
+        <v>106.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="1">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="1">
+        <v>79.099999999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="1">
+        <v>70.599999999999994</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="1">
+        <v>170.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="1">
+        <v>238.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="1">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="1">
+        <v>71.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="1">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="1">
+        <v>178.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="1">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="1">
+        <v>734.97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="1">
+        <v>683.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="1">
+        <v>428.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="1">
+        <v>4362.4489999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="1">
+        <v>684.67200000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="1">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" s="1">
+        <v>298.214</v>
       </c>
     </row>
   </sheetData>

--- a/Prop book.xlsx
+++ b/Prop book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dragoncapitalvn-my.sharepoint.com/personal/thaodien_dragoncapital_com/Documents/Documents/GitHub/Project-broker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34CC44FA-3C2F-4BE6-B1D9-136CE2546304}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F0A95C0-D956-4F60-A3FC-B5706F2EC24D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="39">
   <si>
     <t>Broker</t>
   </si>
@@ -471,19 +471,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1"/>
+    <col min="5" max="6" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -514,7 +514,7 @@
         <v>598.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -528,7 +528,7 @@
         <v>81.7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -542,7 +542,7 @@
         <v>1945.2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -553,7 +553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -567,7 +567,7 @@
         <v>180.69</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -581,7 +581,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -595,7 +595,7 @@
         <v>232.999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -609,7 +609,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -623,7 +623,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -637,7 +637,7 @@
         <v>796.99</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -648,7 +648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -662,7 +662,7 @@
         <v>1882.8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -676,7 +676,7 @@
         <v>11.73</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -690,7 +690,7 @@
         <v>297.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -704,7 +704,7 @@
         <v>139.4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -718,7 +718,7 @@
         <v>803.12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -732,7 +732,7 @@
         <v>837.54</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -746,7 +746,7 @@
         <v>1673.2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -760,7 +760,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -771,7 +771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -785,7 +785,7 @@
         <v>2117.6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -796,7 +796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -810,7 +810,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -824,7 +824,7 @@
         <v>167.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -838,7 +838,7 @@
         <v>695.36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -852,7 +852,7 @@
         <v>772.4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -866,7 +866,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -880,7 +880,7 @@
         <v>172.64</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -894,7 +894,7 @@
         <v>282.2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -908,7 +908,7 @@
         <v>7.84</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -922,7 +922,7 @@
         <v>64.372</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -936,7 +936,7 @@
         <v>105.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -950,7 +950,7 @@
         <v>87.8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -964,7 +964,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -978,7 +978,7 @@
         <v>287.54000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -992,7 +992,7 @@
         <v>177.85</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>426.74</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>252.98500000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>98.06</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>4143.6000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>767.3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>26.64</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>189.8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>106.4</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>204.8</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>170.9</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>238.4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>71.3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>178.9</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>734.97</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>683.3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>22</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>428.9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>22</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>4362.4489999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>684.67200000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>22</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>22</v>
       </c>
@@ -1410,6 +1410,105 @@
       </c>
       <c r="D67" s="1">
         <v>298.214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="1">
+        <v>462.96722006800002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1602.5073289380002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="1">
+        <v>281.90273591299996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="1">
+        <v>325.68608381000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="1">
+        <v>133.6666776649999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="1">
+        <v>465.20486131000007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="1">
+        <v>73.276574532000055</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="1">
+        <v>132.5779621770001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="1">
+        <v>217.38459526100004</v>
       </c>
     </row>
   </sheetData>

--- a/Prop book.xlsx
+++ b/Prop book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dragoncapitalvn-my.sharepoint.com/personal/thaodien_dragoncapital_com/Documents/Documents/GitHub/Project-broker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F0A95C0-D956-4F60-A3FC-B5706F2EC24D}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8403EC46-2486-4B5E-87F4-C06C46D94F9E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="40">
   <si>
     <t>Broker</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>GEI</t>
+  </si>
+  <si>
+    <t>PBT</t>
   </si>
 </sst>
 </file>
@@ -473,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1370,7 +1373,7 @@
         <v>4362.4489999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -1384,7 +1387,7 @@
         <v>684.67200000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>22</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>22</v>
       </c>
@@ -1412,102 +1415,129 @@
         <v>298.214</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>26</v>
       </c>
       <c r="B68" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="1">
+      <c r="C68" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" s="1">
         <v>462.96722006800002</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>22</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
       </c>
-      <c r="F69" s="1">
+      <c r="C69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" s="1">
         <v>1602.5073289380002</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>26</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
       </c>
-      <c r="F70" s="1">
+      <c r="C70" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" s="1">
         <v>281.90273591299996</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>26</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="1">
+      <c r="C71" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" s="1">
         <v>325.68608381000001</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>22</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="1">
+      <c r="C72" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" s="1">
         <v>133.6666776649999</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>22</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="1">
+      <c r="C73" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="1">
         <v>465.20486131000007</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>17</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
       </c>
-      <c r="F74" s="1">
+      <c r="C74" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74" s="1">
         <v>73.276574532000055</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>17</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
       </c>
-      <c r="F75" s="1">
+      <c r="C75" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" s="1">
         <v>132.5779621770001</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>17</v>
       </c>
       <c r="B76" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="1">
+      <c r="C76" t="s">
+        <v>39</v>
+      </c>
+      <c r="D76" s="1">
         <v>217.38459526100004</v>
       </c>
     </row>

--- a/Prop book.xlsx
+++ b/Prop book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dragoncapitalvn-my.sharepoint.com/personal/thaodien_dragoncapital_com/Documents/Documents/GitHub/Project-broker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8403EC46-2486-4B5E-87F4-C06C46D94F9E}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6A74FD6-7E72-4B4B-B3B6-D175475CABC7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="40">
   <si>
     <t>Broker</t>
   </si>
@@ -474,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1541,6 +1541,48 @@
         <v>217.38459526100004</v>
       </c>
     </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" s="1">
+        <v>253.33511597899994</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s">
+        <v>39</v>
+      </c>
+      <c r="D78" s="1">
+        <v>355.10702067799997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" t="s">
+        <v>39</v>
+      </c>
+      <c r="D79" s="1">
+        <v>211.49055106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Prop book.xlsx
+++ b/Prop book.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dragoncapitalvn-my.sharepoint.com/personal/thaodien_dragoncapital_com/Documents/Documents/GitHub/Project-broker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6A74FD6-7E72-4B4B-B3B6-D175475CABC7}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CD564E2-7964-466A-B8BB-93B108263A34}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -476,7 +476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>

--- a/Prop book.xlsx
+++ b/Prop book.xlsx
@@ -477,7 +477,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Prop book.xlsx
+++ b/Prop book.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dragoncapitalvn-my.sharepoint.com/personal/thaodien_dragoncapital_com/Documents/Documents/GitHub/Project-broker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CD564E2-7964-466A-B8BB-93B108263A34}"/>
+  <xr:revisionPtr revIDLastSave="556" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62A5E7C6-8225-42C2-90A4-5096E5150703}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$80</definedName>
+  </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="70">
   <si>
     <t>Broker</t>
   </si>
@@ -156,6 +159,96 @@
   </si>
   <si>
     <t>PBT</t>
+  </si>
+  <si>
+    <t>CTG</t>
+  </si>
+  <si>
+    <t>FRT</t>
+  </si>
+  <si>
+    <t>VTP</t>
+  </si>
+  <si>
+    <t>VND</t>
+  </si>
+  <si>
+    <t>HSG</t>
+  </si>
+  <si>
+    <t>SSI</t>
+  </si>
+  <si>
+    <t>ACB</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>MWG</t>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>VIB</t>
+  </si>
+  <si>
+    <t>GMD</t>
+  </si>
+  <si>
+    <t>PVT</t>
+  </si>
+  <si>
+    <t>VHC</t>
+  </si>
+  <si>
+    <t>TCH</t>
+  </si>
+  <si>
+    <t>NT2</t>
+  </si>
+  <si>
+    <t>VHM</t>
+  </si>
+  <si>
+    <t>HDB</t>
+  </si>
+  <si>
+    <t>DPR</t>
+  </si>
+  <si>
+    <t>VCB</t>
+  </si>
+  <si>
+    <t>26.166374.4</t>
+  </si>
+  <si>
+    <t>FTS</t>
+  </si>
+  <si>
+    <t>MSH</t>
+  </si>
+  <si>
+    <t>BSI</t>
+  </si>
+  <si>
+    <t>LBPS</t>
+  </si>
+  <si>
+    <t>POT</t>
+  </si>
+  <si>
+    <t>VOS</t>
+  </si>
+  <si>
+    <t>OCBS</t>
+  </si>
+  <si>
+    <t>HAG</t>
+  </si>
+  <si>
+    <t>OCB</t>
   </si>
 </sst>
 </file>
@@ -209,6 +302,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
+<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,15 +575,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="E180" sqref="E180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -1583,7 +1684,1478 @@
         <v>211.49055106</v>
       </c>
     </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="1">
+        <v>313.72500000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="1">
+        <v>252.69882000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="1">
+        <v>131.61000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="1">
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" s="1">
+        <v>80.653409999999994</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="1">
+        <v>4593.8958050000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>26</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" s="1">
+        <v>740.51521830000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>26</v>
+      </c>
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" t="s">
+        <v>29</v>
+      </c>
+      <c r="E88" s="1">
+        <v>35.38458</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>26</v>
+      </c>
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" t="s">
+        <v>41</v>
+      </c>
+      <c r="D89" s="1">
+        <v>385.00864000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="1">
+        <v>204.87155000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>26</v>
+      </c>
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" s="1">
+        <v>449.16890000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>26</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="1">
+        <v>298.416</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>26</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="1">
+        <v>2868.1795425969999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" s="1">
+        <v>549.24426149999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" t="s">
+        <v>29</v>
+      </c>
+      <c r="E95" s="1">
+        <v>63.391680000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>43</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="1">
+        <v>471.11800299999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>43</v>
+      </c>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" s="1">
+        <v>444.90018559999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>43</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" s="1">
+        <v>194.95070833</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>43</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="1">
+        <v>459.73992199999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>43</v>
+      </c>
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="1">
+        <v>105.4291377</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>43</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" t="s">
+        <v>40</v>
+      </c>
+      <c r="D101" s="1">
+        <v>112.9934461</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>43</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="1">
+        <v>795.19149128900006</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>43</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="1">
+        <v>418.20360959999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>43</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" t="s">
+        <v>44</v>
+      </c>
+      <c r="D104" s="1">
+        <v>379.16809019999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="1">
+        <v>641.44849673199997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>45</v>
+      </c>
+      <c r="B106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="1">
+        <v>495.18126749999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>45</v>
+      </c>
+      <c r="B107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="1">
+        <v>41.564160000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>45</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="1">
+        <v>34.574301900000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>45</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>46</v>
+      </c>
+      <c r="D109" s="1">
+        <v>17.764817699999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>45</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="1">
+        <v>377.74047731399997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>45</v>
+      </c>
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="1">
+        <v>47.814399999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>45</v>
+      </c>
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" t="s">
+        <v>47</v>
+      </c>
+      <c r="D112" s="1">
+        <v>105.3778854</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>45</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" t="s">
+        <v>48</v>
+      </c>
+      <c r="D113" s="1">
+        <v>45.304979000000003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>45</v>
+      </c>
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" s="1">
+        <v>883.491355</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>45</v>
+      </c>
+      <c r="B115" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" s="1">
+        <v>329.83531951999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>45</v>
+      </c>
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="1">
+        <v>56.4498575</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>45</v>
+      </c>
+      <c r="B117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="1">
+        <v>48.783651149999997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>45</v>
+      </c>
+      <c r="B118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" t="s">
+        <v>48</v>
+      </c>
+      <c r="D118" s="1">
+        <v>53.905700000000003</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>45</v>
+      </c>
+      <c r="B119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" s="1">
+        <v>897.44555519999994</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>45</v>
+      </c>
+      <c r="B120" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" s="1">
+        <v>567.41111581400003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>49</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" s="1">
+        <v>1219.89348</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>49</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="1">
+        <v>891.07434000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>49</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>48</v>
+      </c>
+      <c r="D123" s="1">
+        <v>386.46965</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>49</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="1">
+        <v>376.3553</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>49</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" s="1">
+        <v>258.97612800000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>49</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="1">
+        <v>157.063692</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>49</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>50</v>
+      </c>
+      <c r="D127" s="1">
+        <v>80.896979999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>49</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" s="1">
+        <v>66.592600000000004</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>49</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>51</v>
+      </c>
+      <c r="D129" s="1">
+        <v>35.567970000000003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>49</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>45</v>
+      </c>
+      <c r="D130" s="1">
+        <v>32.722560000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>49</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="1">
+        <v>76.413469636000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>49</v>
+      </c>
+      <c r="B132" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" t="s">
+        <v>52</v>
+      </c>
+      <c r="D132" s="1">
+        <v>51.984900000000003</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>49</v>
+      </c>
+      <c r="B133" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" t="s">
+        <v>20</v>
+      </c>
+      <c r="D133" s="1">
+        <v>54.700949999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>49</v>
+      </c>
+      <c r="B134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134" s="1">
+        <v>43.162300000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>49</v>
+      </c>
+      <c r="B135" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" t="s">
+        <v>47</v>
+      </c>
+      <c r="D135" s="1">
+        <v>37.572000000000003</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>49</v>
+      </c>
+      <c r="B136" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" t="s">
+        <v>53</v>
+      </c>
+      <c r="D136" s="1">
+        <v>26.318750000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>49</v>
+      </c>
+      <c r="B137" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137" t="s">
+        <v>54</v>
+      </c>
+      <c r="D137" s="1">
+        <v>24.028199999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>49</v>
+      </c>
+      <c r="B138" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138" t="s">
+        <v>55</v>
+      </c>
+      <c r="D138" s="1">
+        <v>21.36645</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>49</v>
+      </c>
+      <c r="B139" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139" t="s">
+        <v>24</v>
+      </c>
+      <c r="D139" s="1">
+        <v>17.355250000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>49</v>
+      </c>
+      <c r="B140" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" s="1">
+        <v>17.120100000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>49</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" t="s">
+        <v>25</v>
+      </c>
+      <c r="D141" s="1">
+        <v>16.202475</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>49</v>
+      </c>
+      <c r="B142" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" t="s">
+        <v>48</v>
+      </c>
+      <c r="D142" s="1">
+        <v>13.5169</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>49</v>
+      </c>
+      <c r="B143" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" t="s">
+        <v>56</v>
+      </c>
+      <c r="D143" s="1">
+        <v>8.3619000000000003</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>49</v>
+      </c>
+      <c r="B144" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" s="1">
+        <v>2.3957999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>49</v>
+      </c>
+      <c r="B145" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" s="1">
+        <v>1791.136023734</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>49</v>
+      </c>
+      <c r="B146" t="s">
+        <v>16</v>
+      </c>
+      <c r="C146" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" s="1">
+        <v>691.42874749999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>49</v>
+      </c>
+      <c r="B147" t="s">
+        <v>16</v>
+      </c>
+      <c r="C147" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="1">
+        <v>437.546178</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>49</v>
+      </c>
+      <c r="B148" t="s">
+        <v>16</v>
+      </c>
+      <c r="C148" t="s">
+        <v>46</v>
+      </c>
+      <c r="D148" s="1">
+        <v>398.44944659999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>49</v>
+      </c>
+      <c r="B149" t="s">
+        <v>16</v>
+      </c>
+      <c r="C149" t="s">
+        <v>24</v>
+      </c>
+      <c r="D149" s="1">
+        <v>85.158848000000006</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>49</v>
+      </c>
+      <c r="B150" t="s">
+        <v>16</v>
+      </c>
+      <c r="C150" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="1">
+        <v>56.339108600000003</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>49</v>
+      </c>
+      <c r="B151" t="s">
+        <v>16</v>
+      </c>
+      <c r="C151" t="s">
+        <v>25</v>
+      </c>
+      <c r="D151" s="1">
+        <v>50.207640599999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>49</v>
+      </c>
+      <c r="B152" t="s">
+        <v>16</v>
+      </c>
+      <c r="C152" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152" s="1">
+        <v>48.181075200000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>49</v>
+      </c>
+      <c r="B153" t="s">
+        <v>16</v>
+      </c>
+      <c r="C153" t="s">
+        <v>57</v>
+      </c>
+      <c r="D153" s="1">
+        <v>48.151496999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>49</v>
+      </c>
+      <c r="B154" t="s">
+        <v>16</v>
+      </c>
+      <c r="C154" t="s">
+        <v>56</v>
+      </c>
+      <c r="D154" s="1">
+        <v>38.785400000000003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>49</v>
+      </c>
+      <c r="B155" t="s">
+        <v>16</v>
+      </c>
+      <c r="C155" t="s">
+        <v>48</v>
+      </c>
+      <c r="D155" s="1">
+        <v>33.768990000000002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>49</v>
+      </c>
+      <c r="B156" t="s">
+        <v>16</v>
+      </c>
+      <c r="C156" t="s">
+        <v>58</v>
+      </c>
+      <c r="D156" s="1">
+        <v>27.742000000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>49</v>
+      </c>
+      <c r="B157" t="s">
+        <v>16</v>
+      </c>
+      <c r="C157" t="s">
+        <v>59</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>49</v>
+      </c>
+      <c r="B158" t="s">
+        <v>16</v>
+      </c>
+      <c r="C158" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" s="1">
+        <v>312.90250348900003</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>61</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" t="s">
+        <v>62</v>
+      </c>
+      <c r="D159" s="1">
+        <v>537.23077231399998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>61</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" s="1">
+        <v>1.2738610640000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>61</v>
+      </c>
+      <c r="B161" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161" t="s">
+        <v>62</v>
+      </c>
+      <c r="D161" s="1">
+        <v>571.68737199999998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>61</v>
+      </c>
+      <c r="B162" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" s="1">
+        <v>1.2426057850000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>63</v>
+      </c>
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" t="s">
+        <v>21</v>
+      </c>
+      <c r="D163" s="1">
+        <v>81.770314499999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>63</v>
+      </c>
+      <c r="B164" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" t="s">
+        <v>25</v>
+      </c>
+      <c r="D164" s="1">
+        <v>114.13664420000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>63</v>
+      </c>
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" t="s">
+        <v>53</v>
+      </c>
+      <c r="D165" s="1">
+        <v>74.028000000000006</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>63</v>
+      </c>
+      <c r="B166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" s="1">
+        <v>334.50573044999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>63</v>
+      </c>
+      <c r="B167" t="s">
+        <v>15</v>
+      </c>
+      <c r="C167" t="s">
+        <v>24</v>
+      </c>
+      <c r="D167" s="1">
+        <v>82.876750000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>63</v>
+      </c>
+      <c r="B168" t="s">
+        <v>15</v>
+      </c>
+      <c r="C168" t="s">
+        <v>25</v>
+      </c>
+      <c r="D168" s="1">
+        <v>96.033543249999994</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>63</v>
+      </c>
+      <c r="B169" t="s">
+        <v>15</v>
+      </c>
+      <c r="C169" t="s">
+        <v>14</v>
+      </c>
+      <c r="D169" s="1">
+        <v>619.63735652000003</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>63</v>
+      </c>
+      <c r="B170" t="s">
+        <v>16</v>
+      </c>
+      <c r="C170" t="s">
+        <v>24</v>
+      </c>
+      <c r="D170" s="1">
+        <v>66.806430000000006</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>63</v>
+      </c>
+      <c r="B171" t="s">
+        <v>16</v>
+      </c>
+      <c r="C171" t="s">
+        <v>25</v>
+      </c>
+      <c r="D171" s="1">
+        <v>62.841739349999997</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>63</v>
+      </c>
+      <c r="B172" t="s">
+        <v>16</v>
+      </c>
+      <c r="C172" t="s">
+        <v>48</v>
+      </c>
+      <c r="D172" s="1">
+        <v>64.178100000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>63</v>
+      </c>
+      <c r="B173" t="s">
+        <v>16</v>
+      </c>
+      <c r="C173" t="s">
+        <v>14</v>
+      </c>
+      <c r="D173" s="1">
+        <v>462.98242733000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>64</v>
+      </c>
+      <c r="B174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" t="s">
+        <v>65</v>
+      </c>
+      <c r="E174" s="1">
+        <v>38.06</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>64</v>
+      </c>
+      <c r="B175" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" t="s">
+        <v>66</v>
+      </c>
+      <c r="D175" s="1">
+        <v>1.0325E-4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>64</v>
+      </c>
+      <c r="B176" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176" t="s">
+        <v>65</v>
+      </c>
+      <c r="E176" s="1">
+        <v>35.64</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>64</v>
+      </c>
+      <c r="B177" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" t="s">
+        <v>66</v>
+      </c>
+      <c r="D177" s="1">
+        <v>1.1900000000000001E-4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>64</v>
+      </c>
+      <c r="B178" t="s">
+        <v>16</v>
+      </c>
+      <c r="C178" t="s">
+        <v>65</v>
+      </c>
+      <c r="E178" s="1">
+        <v>33.659999999999997</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>67</v>
+      </c>
+      <c r="B179" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" s="1">
+        <v>64.729280000000003</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>67</v>
+      </c>
+      <c r="B180" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" t="s">
+        <v>14</v>
+      </c>
+      <c r="D180" s="1">
+        <v>4.1003119999999997</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>67</v>
+      </c>
+      <c r="B181" t="s">
+        <v>15</v>
+      </c>
+      <c r="C181" t="s">
+        <v>69</v>
+      </c>
+      <c r="D181" s="1">
+        <v>7.8800173759999996</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>67</v>
+      </c>
+      <c r="B182" t="s">
+        <v>15</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" s="1">
+        <v>57.4816</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>67</v>
+      </c>
+      <c r="B183" t="s">
+        <v>15</v>
+      </c>
+      <c r="C183" t="s">
+        <v>14</v>
+      </c>
+      <c r="D183" s="1">
+        <v>3.4080650000000001E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>67</v>
+      </c>
+      <c r="B184" t="s">
+        <v>16</v>
+      </c>
+      <c r="C184" t="s">
+        <v>69</v>
+      </c>
+      <c r="D184" s="1">
+        <v>9.5435766019999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>67</v>
+      </c>
+      <c r="B185" t="s">
+        <v>16</v>
+      </c>
+      <c r="C185" t="s">
+        <v>14</v>
+      </c>
+      <c r="D185" s="1">
+        <v>3.4080650000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:A80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Prop book.xlsx
+++ b/Prop book.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dragoncapitalvn-my.sharepoint.com/personal/thaodien_dragoncapital_com/Documents/Documents/GitHub/Project-broker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="556" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62A5E7C6-8225-42C2-90A4-5096E5150703}"/>
+  <xr:revisionPtr revIDLastSave="559" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BDC82DD-1CAB-4BA0-A1F2-4813268A15EB}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$79</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="69">
   <si>
     <t>Broker</t>
   </si>
@@ -219,9 +219,6 @@
   </si>
   <si>
     <t>VCB</t>
-  </si>
-  <si>
-    <t>26.166374.4</t>
   </si>
   <si>
     <t>FTS</t>
@@ -284,9 +281,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -302,14 +302,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
-<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -575,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F185"/>
+  <dimension ref="A1:F184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="E180" sqref="E180"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1684,6 +1676,20 @@
         <v>211.49055106</v>
       </c>
     </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="1">
+        <v>313.72500000000002</v>
+      </c>
+    </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>26</v>
@@ -1692,10 +1698,10 @@
         <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D81" s="1">
-        <v>313.72500000000002</v>
+        <v>252.69882000000001</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
@@ -1706,10 +1712,10 @@
         <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D82" s="1">
-        <v>252.69882000000001</v>
+        <v>131.61000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
@@ -1720,10 +1726,10 @@
         <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D83" s="1">
-        <v>131.61000000000001</v>
+        <v>115.5</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
@@ -1734,10 +1740,10 @@
         <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D84" s="1">
-        <v>115.5</v>
+        <v>80.653409999999994</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
@@ -1748,10 +1754,10 @@
         <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D85" s="1">
-        <v>80.653409999999994</v>
+        <v>4593.8958050000001</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
@@ -1762,10 +1768,10 @@
         <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" s="1">
-        <v>4593.8958050000001</v>
+        <v>28</v>
+      </c>
+      <c r="E86" s="1">
+        <v>740.51521830000002</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
@@ -1776,10 +1782,10 @@
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E87" s="1">
-        <v>740.51521830000002</v>
+        <v>35.38458</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
@@ -1787,13 +1793,13 @@
         <v>26</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
-      </c>
-      <c r="E88" s="1">
-        <v>35.38458</v>
+        <v>41</v>
+      </c>
+      <c r="D88" s="1">
+        <v>385.00864000000001</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
@@ -1804,10 +1810,10 @@
         <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D89" s="1">
-        <v>385.00864000000001</v>
+        <v>204.87155000000001</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
@@ -1818,10 +1824,10 @@
         <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D90" s="1">
-        <v>204.87155000000001</v>
+        <v>449.16890000000001</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
@@ -1832,10 +1838,10 @@
         <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D91" s="1">
-        <v>449.16890000000001</v>
+        <v>298.416</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
@@ -1846,10 +1852,10 @@
         <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D92" s="1">
-        <v>298.416</v>
+        <v>2868.1795425969999</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
@@ -1860,10 +1866,10 @@
         <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="1">
-        <v>2868.1795425969999</v>
+        <v>28</v>
+      </c>
+      <c r="E93" s="1">
+        <v>549.24426149999999</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
@@ -1874,24 +1880,24 @@
         <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E94" s="1">
-        <v>549.24426149999999</v>
+        <v>63.391680000000001</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
-      </c>
-      <c r="E95" s="1">
-        <v>63.391680000000001</v>
+        <v>21</v>
+      </c>
+      <c r="D95" s="1">
+        <v>471.11800299999999</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
@@ -1902,10 +1908,10 @@
         <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D96" s="1">
-        <v>471.11800299999999</v>
+        <v>444.90018559999999</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -1916,10 +1922,10 @@
         <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D97" s="1">
-        <v>444.90018559999999</v>
+        <v>194.95070833</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -1927,13 +1933,13 @@
         <v>43</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D98" s="1">
-        <v>194.95070833</v>
+        <v>459.73992199999998</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -1944,10 +1950,10 @@
         <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D99" s="1">
-        <v>459.73992199999998</v>
+        <v>105.4291377</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -1958,10 +1964,10 @@
         <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D100" s="1">
-        <v>105.4291377</v>
+        <v>112.9934461</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -1972,10 +1978,10 @@
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D101" s="1">
-        <v>112.9934461</v>
+        <v>795.19149128900006</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
@@ -1983,13 +1989,13 @@
         <v>43</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D102" s="1">
-        <v>795.19149128900006</v>
+        <v>418.20360959999999</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -2000,10 +2006,10 @@
         <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D103" s="1">
-        <v>418.20360959999999</v>
+        <v>379.16809019999999</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -2014,24 +2020,24 @@
         <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D104" s="1">
-        <v>379.16809019999999</v>
+        <v>641.44849673199997</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D105" s="1">
-        <v>641.44849673199997</v>
+        <v>495.18126749999999</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
@@ -2042,10 +2048,10 @@
         <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D106" s="1">
-        <v>495.18126749999999</v>
+        <v>41.564160000000001</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
@@ -2056,10 +2062,10 @@
         <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D107" s="1">
-        <v>41.564160000000001</v>
+        <v>34.574301900000002</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -2070,10 +2076,10 @@
         <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D108" s="1">
-        <v>34.574301900000002</v>
+        <v>17.764817699999998</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -2084,10 +2090,10 @@
         <v>13</v>
       </c>
       <c r="C109" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D109" s="1">
-        <v>17.764817699999998</v>
+        <v>377.74047731399997</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
@@ -2095,13 +2101,13 @@
         <v>45</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D110" s="1">
-        <v>377.74047731399997</v>
+        <v>47.814399999999999</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -2112,10 +2118,10 @@
         <v>15</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D111" s="1">
-        <v>47.814399999999999</v>
+        <v>105.3778854</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -2126,10 +2132,10 @@
         <v>15</v>
       </c>
       <c r="C112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D112" s="1">
-        <v>105.3778854</v>
+        <v>45.304979000000003</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -2140,10 +2146,10 @@
         <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D113" s="1">
-        <v>45.304979000000003</v>
+        <v>883.491355</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -2154,10 +2160,10 @@
         <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D114" s="1">
-        <v>883.491355</v>
+        <v>329.83531951999998</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -2165,13 +2171,13 @@
         <v>45</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D115" s="1">
-        <v>329.83531951999998</v>
+        <v>56.4498575</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
@@ -2182,10 +2188,10 @@
         <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D116" s="1">
-        <v>56.4498575</v>
+        <v>48.783651149999997</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -2196,10 +2202,10 @@
         <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D117" s="1">
-        <v>48.783651149999997</v>
+        <v>53.905700000000003</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -2210,10 +2216,10 @@
         <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D118" s="1">
-        <v>53.905700000000003</v>
+        <v>897.44555519999994</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -2224,24 +2230,24 @@
         <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D119" s="1">
-        <v>897.44555519999994</v>
+        <v>567.41111581400003</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D120" s="1">
-        <v>567.41111581400003</v>
+        <v>1219.89348</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -2252,10 +2258,10 @@
         <v>13</v>
       </c>
       <c r="C121" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D121" s="1">
-        <v>1219.89348</v>
+        <v>891.07434000000001</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -2266,10 +2272,10 @@
         <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D122" s="1">
-        <v>891.07434000000001</v>
+        <v>386.46965</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -2280,10 +2286,10 @@
         <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D123" s="1">
-        <v>386.46965</v>
+        <v>376.3553</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -2294,10 +2300,10 @@
         <v>13</v>
       </c>
       <c r="C124" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D124" s="1">
-        <v>376.3553</v>
+        <v>258.97612800000002</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -2308,10 +2314,10 @@
         <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D125" s="1">
-        <v>258.97612800000002</v>
+        <v>157.063692</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -2322,10 +2328,10 @@
         <v>13</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D126" s="1">
-        <v>157.063692</v>
+        <v>80.896979999999999</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -2336,10 +2342,10 @@
         <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D127" s="1">
-        <v>80.896979999999999</v>
+        <v>66.592600000000004</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -2350,10 +2356,10 @@
         <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D128" s="1">
-        <v>66.592600000000004</v>
+        <v>35.567970000000003</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -2364,10 +2370,10 @@
         <v>13</v>
       </c>
       <c r="C129" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D129" s="1">
-        <v>35.567970000000003</v>
+        <v>32.722560000000001</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -2378,10 +2384,10 @@
         <v>13</v>
       </c>
       <c r="C130" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D130" s="1">
-        <v>32.722560000000001</v>
+        <v>76.413469636000002</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -2389,13 +2395,13 @@
         <v>49</v>
       </c>
       <c r="B131" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D131" s="1">
-        <v>76.413469636000002</v>
+        <v>51.984900000000003</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -2406,10 +2412,10 @@
         <v>15</v>
       </c>
       <c r="C132" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D132" s="1">
-        <v>51.984900000000003</v>
+        <v>54.700949999999999</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
@@ -2420,10 +2426,10 @@
         <v>15</v>
       </c>
       <c r="C133" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D133" s="1">
-        <v>54.700949999999999</v>
+        <v>43.162300000000002</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -2434,10 +2440,10 @@
         <v>15</v>
       </c>
       <c r="C134" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D134" s="1">
-        <v>43.162300000000002</v>
+        <v>37.572000000000003</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
@@ -2448,10 +2454,10 @@
         <v>15</v>
       </c>
       <c r="C135" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D135" s="1">
-        <v>37.572000000000003</v>
+        <v>26.318750000000001</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -2462,10 +2468,10 @@
         <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D136" s="1">
-        <v>26.318750000000001</v>
+        <v>24.028199999999998</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
@@ -2476,10 +2482,10 @@
         <v>15</v>
       </c>
       <c r="C137" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D137" s="1">
-        <v>24.028199999999998</v>
+        <v>21.36645</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
@@ -2490,10 +2496,10 @@
         <v>15</v>
       </c>
       <c r="C138" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D138" s="1">
-        <v>21.36645</v>
+        <v>17.355250000000002</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -2504,10 +2510,10 @@
         <v>15</v>
       </c>
       <c r="C139" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D139" s="1">
-        <v>17.355250000000002</v>
+        <v>17.120100000000001</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -2518,10 +2524,10 @@
         <v>15</v>
       </c>
       <c r="C140" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D140" s="1">
-        <v>17.120100000000001</v>
+        <v>16.202475</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
@@ -2532,10 +2538,10 @@
         <v>15</v>
       </c>
       <c r="C141" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D141" s="1">
-        <v>16.202475</v>
+        <v>13.5169</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
@@ -2546,10 +2552,10 @@
         <v>15</v>
       </c>
       <c r="C142" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D142" s="1">
-        <v>13.5169</v>
+        <v>8.3619000000000003</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
@@ -2560,10 +2566,10 @@
         <v>15</v>
       </c>
       <c r="C143" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D143" s="1">
-        <v>8.3619000000000003</v>
+        <v>2.3957999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -2574,10 +2580,10 @@
         <v>15</v>
       </c>
       <c r="C144" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D144" s="1">
-        <v>2.3957999999999999</v>
+        <v>1791.136023734</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
@@ -2585,13 +2591,13 @@
         <v>49</v>
       </c>
       <c r="B145" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D145" s="1">
-        <v>1791.136023734</v>
+        <v>691.42874749999999</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
@@ -2602,10 +2608,10 @@
         <v>16</v>
       </c>
       <c r="C146" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D146" s="1">
-        <v>691.42874749999999</v>
+        <v>437.546178</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
@@ -2616,10 +2622,10 @@
         <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D147" s="1">
-        <v>437.546178</v>
+        <v>398.44944659999999</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
@@ -2630,10 +2636,10 @@
         <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D148" s="1">
-        <v>398.44944659999999</v>
+        <v>85.158848000000006</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -2644,10 +2650,10 @@
         <v>16</v>
       </c>
       <c r="C149" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D149" s="1">
-        <v>85.158848000000006</v>
+        <v>56.339108600000003</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
@@ -2658,10 +2664,10 @@
         <v>16</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D150" s="1">
-        <v>56.339108600000003</v>
+        <v>50.207640599999998</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -2672,10 +2678,10 @@
         <v>16</v>
       </c>
       <c r="C151" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D151" s="1">
-        <v>50.207640599999998</v>
+        <v>48.181075200000002</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
@@ -2686,10 +2692,10 @@
         <v>16</v>
       </c>
       <c r="C152" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="D152" s="1">
-        <v>48.181075200000002</v>
+        <v>48.151496999999999</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -2700,10 +2706,10 @@
         <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D153" s="1">
-        <v>48.151496999999999</v>
+        <v>38.785400000000003</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
@@ -2714,10 +2720,10 @@
         <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D154" s="1">
-        <v>38.785400000000003</v>
+        <v>33.768990000000002</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
@@ -2728,10 +2734,10 @@
         <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D155" s="1">
-        <v>33.768990000000002</v>
+        <v>27.742000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
@@ -2742,10 +2748,10 @@
         <v>16</v>
       </c>
       <c r="C156" t="s">
-        <v>58</v>
-      </c>
-      <c r="D156" s="1">
-        <v>27.742000000000001</v>
+        <v>59</v>
+      </c>
+      <c r="D156" s="2">
+        <v>26.166374399999999</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
@@ -2756,220 +2762,220 @@
         <v>16</v>
       </c>
       <c r="C157" t="s">
-        <v>59</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>60</v>
+        <v>14</v>
+      </c>
+      <c r="D157" s="1">
+        <v>312.90250348900003</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B158" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C158" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D158" s="1">
-        <v>312.90250348900003</v>
+        <v>537.23077231399998</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B159" t="s">
         <v>13</v>
       </c>
       <c r="C159" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D159" s="1">
-        <v>537.23077231399998</v>
+        <v>1.2738610640000001</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
+        <v>60</v>
+      </c>
+      <c r="B160" t="s">
+        <v>15</v>
+      </c>
+      <c r="C160" t="s">
         <v>61</v>
       </c>
-      <c r="B160" t="s">
-        <v>13</v>
-      </c>
-      <c r="C160" t="s">
-        <v>14</v>
-      </c>
       <c r="D160" s="1">
-        <v>1.2738610640000001</v>
+        <v>571.68737199999998</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B161" t="s">
         <v>15</v>
       </c>
       <c r="C161" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D161" s="1">
-        <v>571.68737199999998</v>
+        <v>1.2426057850000001</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B162" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C162" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D162" s="1">
-        <v>1.2426057850000001</v>
+        <v>81.770314499999998</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B163" t="s">
         <v>13</v>
       </c>
       <c r="C163" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D163" s="1">
-        <v>81.770314499999998</v>
+        <v>114.13664420000001</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B164" t="s">
         <v>13</v>
       </c>
       <c r="C164" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D164" s="1">
-        <v>114.13664420000001</v>
+        <v>74.028000000000006</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B165" t="s">
         <v>13</v>
       </c>
       <c r="C165" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D165" s="1">
-        <v>74.028000000000006</v>
+        <v>334.50573044999999</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B166" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D166" s="1">
-        <v>334.50573044999999</v>
+        <v>82.876750000000001</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B167" t="s">
         <v>15</v>
       </c>
       <c r="C167" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D167" s="1">
-        <v>82.876750000000001</v>
+        <v>96.033543249999994</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B168" t="s">
         <v>15</v>
       </c>
       <c r="C168" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D168" s="1">
-        <v>96.033543249999994</v>
+        <v>619.63735652000003</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B169" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C169" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D169" s="1">
-        <v>619.63735652000003</v>
+        <v>66.806430000000006</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B170" t="s">
         <v>16</v>
       </c>
       <c r="C170" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D170" s="1">
-        <v>66.806430000000006</v>
+        <v>62.841739349999997</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B171" t="s">
         <v>16</v>
       </c>
       <c r="C171" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D171" s="1">
-        <v>62.841739349999997</v>
+        <v>64.178100000000001</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B172" t="s">
         <v>16</v>
       </c>
       <c r="C172" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D172" s="1">
-        <v>64.178100000000001</v>
+        <v>462.98242733000001</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
@@ -2977,185 +2983,171 @@
         <v>63</v>
       </c>
       <c r="B173" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C173" t="s">
-        <v>14</v>
-      </c>
-      <c r="D173" s="1">
-        <v>462.98242733000001</v>
+        <v>64</v>
+      </c>
+      <c r="E173" s="1">
+        <v>38.06</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B174" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C174" t="s">
         <v>65</v>
       </c>
-      <c r="E174" s="1">
-        <v>38.06</v>
+      <c r="D174" s="1">
+        <v>1.0325E-4</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
+        <v>63</v>
+      </c>
+      <c r="B175" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" t="s">
         <v>64</v>
       </c>
-      <c r="B175" t="s">
-        <v>15</v>
-      </c>
-      <c r="C175" t="s">
-        <v>66</v>
-      </c>
-      <c r="D175" s="1">
-        <v>1.0325E-4</v>
+      <c r="E175" s="1">
+        <v>35.64</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B176" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C176" t="s">
         <v>65</v>
       </c>
-      <c r="E176" s="1">
-        <v>35.64</v>
+      <c r="D176" s="1">
+        <v>1.1900000000000001E-4</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
+        <v>63</v>
+      </c>
+      <c r="B177" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" t="s">
         <v>64</v>
       </c>
-      <c r="B177" t="s">
-        <v>16</v>
-      </c>
-      <c r="C177" t="s">
-        <v>66</v>
-      </c>
-      <c r="D177" s="1">
-        <v>1.1900000000000001E-4</v>
+      <c r="E177" s="1">
+        <v>33.659999999999997</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B178" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C178" t="s">
-        <v>65</v>
-      </c>
-      <c r="E178" s="1">
-        <v>33.659999999999997</v>
+        <v>67</v>
+      </c>
+      <c r="D178" s="1">
+        <v>64.729280000000003</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B179" t="s">
         <v>13</v>
       </c>
       <c r="C179" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D179" s="1">
-        <v>64.729280000000003</v>
+        <v>4.1003119999999997</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B180" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C180" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="D180" s="1">
-        <v>4.1003119999999997</v>
+        <v>7.8800173759999996</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
+        <v>66</v>
+      </c>
+      <c r="B181" t="s">
+        <v>15</v>
+      </c>
+      <c r="C181" t="s">
         <v>67</v>
       </c>
-      <c r="B181" t="s">
-        <v>15</v>
-      </c>
-      <c r="C181" t="s">
-        <v>69</v>
-      </c>
       <c r="D181" s="1">
-        <v>7.8800173759999996</v>
+        <v>57.4816</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B182" t="s">
         <v>15</v>
       </c>
       <c r="C182" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D182" s="1">
-        <v>57.4816</v>
+        <v>3.4080650000000001E-3</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B183" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C183" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="D183" s="1">
-        <v>3.4080650000000001E-3</v>
+        <v>9.5435766019999999</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B184" t="s">
         <v>16</v>
       </c>
       <c r="C184" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="D184" s="1">
-        <v>9.5435766019999999</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>67</v>
-      </c>
-      <c r="B185" t="s">
-        <v>16</v>
-      </c>
-      <c r="C185" t="s">
-        <v>14</v>
-      </c>
-      <c r="D185" s="1">
         <v>3.4080650000000001E-3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:A79" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Prop book.xlsx
+++ b/Prop book.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dragoncapitalvn-my.sharepoint.com/personal/thaodien_dragoncapital_com/Documents/Documents/GitHub/Project-broker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="559" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BDC82DD-1CAB-4BA0-A1F2-4813268A15EB}"/>
+  <xr:revisionPtr revIDLastSave="668" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{424A1F4A-4957-46B1-8CE9-E4E79691D9B1}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="270" windowWidth="19380" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$208</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="69">
   <si>
     <t>Broker</t>
   </si>
@@ -567,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F184"/>
+  <dimension ref="A1:F208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+      <selection activeCell="F197" sqref="F197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3146,8 +3146,344 @@
         <v>3.4080650000000001E-3</v>
       </c>
     </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>62</v>
+      </c>
+      <c r="B185" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" t="s">
+        <v>39</v>
+      </c>
+      <c r="D185" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>62</v>
+      </c>
+      <c r="B186" t="s">
+        <v>15</v>
+      </c>
+      <c r="C186" t="s">
+        <v>39</v>
+      </c>
+      <c r="D186" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>62</v>
+      </c>
+      <c r="B187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C187" t="s">
+        <v>39</v>
+      </c>
+      <c r="D187" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>60</v>
+      </c>
+      <c r="B188" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188" t="s">
+        <v>39</v>
+      </c>
+      <c r="D188" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>60</v>
+      </c>
+      <c r="B189" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189" t="s">
+        <v>39</v>
+      </c>
+      <c r="D189" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>60</v>
+      </c>
+      <c r="B190" t="s">
+        <v>16</v>
+      </c>
+      <c r="C190" t="s">
+        <v>39</v>
+      </c>
+      <c r="D190" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>49</v>
+      </c>
+      <c r="B191" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" t="s">
+        <v>39</v>
+      </c>
+      <c r="D191" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>49</v>
+      </c>
+      <c r="B192" t="s">
+        <v>15</v>
+      </c>
+      <c r="C192" t="s">
+        <v>39</v>
+      </c>
+      <c r="D192" s="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>49</v>
+      </c>
+      <c r="B193" t="s">
+        <v>16</v>
+      </c>
+      <c r="C193" t="s">
+        <v>39</v>
+      </c>
+      <c r="D193" s="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>63</v>
+      </c>
+      <c r="B194" t="s">
+        <v>13</v>
+      </c>
+      <c r="C194" t="s">
+        <v>39</v>
+      </c>
+      <c r="D194" s="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>63</v>
+      </c>
+      <c r="B195" t="s">
+        <v>15</v>
+      </c>
+      <c r="C195" t="s">
+        <v>39</v>
+      </c>
+      <c r="D195" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>63</v>
+      </c>
+      <c r="B196" t="s">
+        <v>16</v>
+      </c>
+      <c r="C196" t="s">
+        <v>39</v>
+      </c>
+      <c r="D196" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>66</v>
+      </c>
+      <c r="B197" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197" t="s">
+        <v>39</v>
+      </c>
+      <c r="D197" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>66</v>
+      </c>
+      <c r="B198" t="s">
+        <v>15</v>
+      </c>
+      <c r="C198" t="s">
+        <v>39</v>
+      </c>
+      <c r="D198" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>66</v>
+      </c>
+      <c r="B199" t="s">
+        <v>16</v>
+      </c>
+      <c r="C199" t="s">
+        <v>39</v>
+      </c>
+      <c r="D199" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>26</v>
+      </c>
+      <c r="B200" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200" t="s">
+        <v>39</v>
+      </c>
+      <c r="D200" s="1">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>26</v>
+      </c>
+      <c r="B201" t="s">
+        <v>15</v>
+      </c>
+      <c r="C201" t="s">
+        <v>39</v>
+      </c>
+      <c r="D201" s="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>26</v>
+      </c>
+      <c r="B202" t="s">
+        <v>16</v>
+      </c>
+      <c r="C202" t="s">
+        <v>39</v>
+      </c>
+      <c r="D202" s="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>45</v>
+      </c>
+      <c r="B203" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203" t="s">
+        <v>39</v>
+      </c>
+      <c r="D203" s="1">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>45</v>
+      </c>
+      <c r="B204" t="s">
+        <v>15</v>
+      </c>
+      <c r="C204" t="s">
+        <v>39</v>
+      </c>
+      <c r="D204" s="1">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>45</v>
+      </c>
+      <c r="B205" t="s">
+        <v>16</v>
+      </c>
+      <c r="C205" t="s">
+        <v>39</v>
+      </c>
+      <c r="D205" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>43</v>
+      </c>
+      <c r="B206" t="s">
+        <v>13</v>
+      </c>
+      <c r="C206" t="s">
+        <v>39</v>
+      </c>
+      <c r="D206" s="1">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>43</v>
+      </c>
+      <c r="B207" t="s">
+        <v>15</v>
+      </c>
+      <c r="C207" t="s">
+        <v>39</v>
+      </c>
+      <c r="D207" s="1">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>43</v>
+      </c>
+      <c r="B208" t="s">
+        <v>16</v>
+      </c>
+      <c r="C208" t="s">
+        <v>39</v>
+      </c>
+      <c r="D208" s="1">
+        <v>275</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A79" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E208" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Prop book.xlsx
+++ b/Prop book.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dragoncapitalvn-my.sharepoint.com/personal/thaodien_dragoncapital_com/Documents/Documents/GitHub/Project-broker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="668" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{424A1F4A-4957-46B1-8CE9-E4E79691D9B1}"/>
+  <xr:revisionPtr revIDLastSave="669" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8E64A6B-AD1A-48B4-B9C2-851CACD7CA07}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="270" windowWidth="19380" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$208</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$208</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="68">
   <si>
     <t>Broker</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>SHS</t>
-  </si>
-  <si>
-    <t>AFS</t>
   </si>
   <si>
     <t>SHB</t>
@@ -567,19 +564,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F208"/>
+  <dimension ref="A1:E208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F197" sqref="F197"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -592,11 +589,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -610,7 +604,7 @@
         <v>598.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -624,7 +618,7 @@
         <v>81.7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -638,7 +632,7 @@
         <v>1945.2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -649,7 +643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -663,7 +657,7 @@
         <v>180.69</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -677,7 +671,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -691,7 +685,7 @@
         <v>232.999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -705,7 +699,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -719,7 +713,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -733,7 +727,7 @@
         <v>796.99</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -744,7 +738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -758,7 +752,7 @@
         <v>1882.8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -772,7 +766,7 @@
         <v>11.73</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -786,7 +780,7 @@
         <v>297.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -800,7 +794,7 @@
         <v>139.4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -814,7 +808,7 @@
         <v>803.12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -828,7 +822,7 @@
         <v>837.54</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -842,7 +836,7 @@
         <v>1673.2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -856,7 +850,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -867,7 +861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -881,7 +875,7 @@
         <v>2117.6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -892,7 +886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -906,7 +900,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -920,7 +914,7 @@
         <v>167.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -934,7 +928,7 @@
         <v>695.36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -948,7 +942,7 @@
         <v>772.4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -962,7 +956,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -976,7 +970,7 @@
         <v>172.64</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -990,7 +984,7 @@
         <v>282.2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1004,7 +998,7 @@
         <v>7.84</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1018,7 +1012,7 @@
         <v>64.372</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1032,7 +1026,7 @@
         <v>105.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -1046,7 +1040,7 @@
         <v>87.8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1060,7 +1054,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1074,7 +1068,7 @@
         <v>287.54000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -1088,7 +1082,7 @@
         <v>177.85</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -1102,7 +1096,7 @@
         <v>426.74</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -1116,7 +1110,7 @@
         <v>252.98500000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1130,7 +1124,7 @@
         <v>98.06</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -1144,7 +1138,7 @@
         <v>4143.6000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -1152,13 +1146,10 @@
         <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="1">
-        <v>767.3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -1166,13 +1157,10 @@
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="1">
-        <v>26.64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -1186,7 +1174,7 @@
         <v>189.8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1200,7 +1188,7 @@
         <v>106.4</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1214,7 +1202,7 @@
         <v>204.8</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1228,7 +1216,7 @@
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -1242,7 +1230,7 @@
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -1256,7 +1244,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1270,7 +1258,7 @@
         <v>170.9</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -1284,7 +1272,7 @@
         <v>238.4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -1298,7 +1286,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -1312,7 +1300,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -1326,7 +1314,7 @@
         <v>71.3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -1334,13 +1322,13 @@
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D55" s="1">
         <v>47.6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -1348,13 +1336,13 @@
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D56" s="1">
         <v>178.9</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -1362,13 +1350,13 @@
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D57" s="1">
         <v>10.3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -1382,7 +1370,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -1396,7 +1384,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -1410,7 +1398,7 @@
         <v>734.97</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -1418,13 +1406,13 @@
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -1432,13 +1420,13 @@
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D62" s="1">
         <v>683.3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>22</v>
       </c>
@@ -1446,13 +1434,13 @@
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D63" s="1">
         <v>428.9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>22</v>
       </c>
@@ -1466,7 +1454,7 @@
         <v>4362.4489999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -1474,13 +1462,13 @@
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D65" s="1">
         <v>684.67200000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>22</v>
       </c>
@@ -1488,13 +1476,13 @@
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D66" s="1">
         <v>873</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>22</v>
       </c>
@@ -1502,13 +1490,13 @@
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D67" s="1">
         <v>298.214</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>26</v>
       </c>
@@ -1516,13 +1504,13 @@
         <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D68" s="1">
         <v>462.96722006800002</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>22</v>
       </c>
@@ -1530,13 +1518,13 @@
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D69" s="1">
         <v>1602.5073289380002</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>26</v>
       </c>
@@ -1544,13 +1532,13 @@
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D70" s="1">
         <v>281.90273591299996</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -1558,13 +1546,13 @@
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D71" s="1">
         <v>325.68608381000001</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>22</v>
       </c>
@@ -1572,13 +1560,13 @@
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D72" s="1">
         <v>133.6666776649999</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -1586,13 +1574,13 @@
         <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D73" s="1">
         <v>465.20486131000007</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -1600,13 +1588,13 @@
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D74" s="1">
         <v>73.276574532000055</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -1614,13 +1602,13 @@
         <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D75" s="1">
         <v>132.5779621770001</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -1628,13 +1616,13 @@
         <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D76" s="1">
         <v>217.38459526100004</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -1642,13 +1630,13 @@
         <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D77" s="1">
         <v>253.33511597899994</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -1656,13 +1644,13 @@
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D78" s="1">
         <v>355.10702067799997</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -1670,13 +1658,13 @@
         <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D79" s="1">
         <v>211.49055106</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -1690,7 +1678,7 @@
         <v>313.72500000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -1704,7 +1692,7 @@
         <v>252.69882000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -1718,7 +1706,7 @@
         <v>131.61000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -1732,7 +1720,7 @@
         <v>115.5</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -1740,13 +1728,13 @@
         <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D84" s="1">
         <v>80.653409999999994</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -1760,7 +1748,7 @@
         <v>4593.8958050000001</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -1768,13 +1756,10 @@
         <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
-      </c>
-      <c r="E86" s="1">
-        <v>740.51521830000002</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -1782,13 +1767,10 @@
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
-      </c>
-      <c r="E87" s="1">
-        <v>35.38458</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>26</v>
       </c>
@@ -1796,13 +1778,13 @@
         <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D88" s="1">
         <v>385.00864000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>26</v>
       </c>
@@ -1816,7 +1798,7 @@
         <v>204.87155000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -1824,13 +1806,13 @@
         <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D90" s="1">
         <v>449.16890000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>26</v>
       </c>
@@ -1844,7 +1826,7 @@
         <v>298.416</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>26</v>
       </c>
@@ -1858,7 +1840,7 @@
         <v>2868.1795425969999</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>26</v>
       </c>
@@ -1866,13 +1848,10 @@
         <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
-      </c>
-      <c r="E93" s="1">
-        <v>549.24426149999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -1880,15 +1859,12 @@
         <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
-      </c>
-      <c r="E94" s="1">
-        <v>63.391680000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B95" t="s">
         <v>13</v>
@@ -1900,23 +1876,23 @@
         <v>471.11800299999999</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>42</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" t="s">
         <v>43</v>
-      </c>
-      <c r="B96" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" t="s">
-        <v>44</v>
       </c>
       <c r="D96" s="1">
         <v>444.90018559999999</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B97" t="s">
         <v>13</v>
@@ -1928,9 +1904,9 @@
         <v>194.95070833</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B98" t="s">
         <v>15</v>
@@ -1942,9 +1918,9 @@
         <v>459.73992199999998</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B99" t="s">
         <v>15</v>
@@ -1956,23 +1932,23 @@
         <v>105.4291377</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B100" t="s">
         <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D100" s="1">
         <v>112.9934461</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B101" t="s">
         <v>15</v>
@@ -1984,9 +1960,9 @@
         <v>795.19149128900006</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B102" t="s">
         <v>16</v>
@@ -1998,23 +1974,23 @@
         <v>418.20360959999999</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>42</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
         <v>43</v>
-      </c>
-      <c r="B103" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" t="s">
-        <v>44</v>
       </c>
       <c r="D103" s="1">
         <v>379.16809019999999</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B104" t="s">
         <v>16</v>
@@ -2026,9 +2002,9 @@
         <v>641.44849673199997</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B105" t="s">
         <v>13</v>
@@ -2040,9 +2016,9 @@
         <v>495.18126749999999</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B106" t="s">
         <v>13</v>
@@ -2054,9 +2030,9 @@
         <v>41.564160000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B107" t="s">
         <v>13</v>
@@ -2068,23 +2044,23 @@
         <v>34.574301900000002</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>44</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
         <v>45</v>
-      </c>
-      <c r="B108" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" t="s">
-        <v>46</v>
       </c>
       <c r="D108" s="1">
         <v>17.764817699999998</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B109" t="s">
         <v>13</v>
@@ -2096,9 +2072,9 @@
         <v>377.74047731399997</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B110" t="s">
         <v>15</v>
@@ -2110,37 +2086,37 @@
         <v>47.814399999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B111" t="s">
         <v>15</v>
       </c>
       <c r="C111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D111" s="1">
         <v>105.3778854</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B112" t="s">
         <v>15</v>
       </c>
       <c r="C112" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D112" s="1">
         <v>45.304979000000003</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B113" t="s">
         <v>15</v>
@@ -2152,9 +2128,9 @@
         <v>883.491355</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B114" t="s">
         <v>15</v>
@@ -2166,9 +2142,9 @@
         <v>329.83531951999998</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B115" t="s">
         <v>16</v>
@@ -2180,9 +2156,9 @@
         <v>56.4498575</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B116" t="s">
         <v>16</v>
@@ -2194,23 +2170,23 @@
         <v>48.783651149999997</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B117" t="s">
         <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D117" s="1">
         <v>53.905700000000003</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B118" t="s">
         <v>16</v>
@@ -2222,9 +2198,9 @@
         <v>897.44555519999994</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B119" t="s">
         <v>16</v>
@@ -2236,9 +2212,9 @@
         <v>567.41111581400003</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B120" t="s">
         <v>13</v>
@@ -2250,9 +2226,9 @@
         <v>1219.89348</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B121" t="s">
         <v>13</v>
@@ -2264,23 +2240,23 @@
         <v>891.07434000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B122" t="s">
         <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D122" s="1">
         <v>386.46965</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B123" t="s">
         <v>13</v>
@@ -2292,9 +2268,9 @@
         <v>376.3553</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B124" t="s">
         <v>13</v>
@@ -2306,9 +2282,9 @@
         <v>258.97612800000002</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B125" t="s">
         <v>13</v>
@@ -2320,23 +2296,23 @@
         <v>157.063692</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>48</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
         <v>49</v>
-      </c>
-      <c r="B126" t="s">
-        <v>13</v>
-      </c>
-      <c r="C126" t="s">
-        <v>50</v>
       </c>
       <c r="D126" s="1">
         <v>80.896979999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B127" t="s">
         <v>13</v>
@@ -2348,37 +2324,37 @@
         <v>66.592600000000004</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B128" t="s">
         <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D128" s="1">
         <v>35.567970000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B129" t="s">
         <v>13</v>
       </c>
       <c r="C129" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D129" s="1">
         <v>32.722560000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B130" t="s">
         <v>13</v>
@@ -2390,23 +2366,23 @@
         <v>76.413469636000002</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B131" t="s">
         <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D131" s="1">
         <v>51.984900000000003</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B132" t="s">
         <v>15</v>
@@ -2418,9 +2394,9 @@
         <v>54.700949999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B133" t="s">
         <v>15</v>
@@ -2432,65 +2408,65 @@
         <v>43.162300000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B134" t="s">
         <v>15</v>
       </c>
       <c r="C134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D134" s="1">
         <v>37.572000000000003</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B135" t="s">
         <v>15</v>
       </c>
       <c r="C135" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D135" s="1">
         <v>26.318750000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B136" t="s">
         <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D136" s="1">
         <v>24.028199999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B137" t="s">
         <v>15</v>
       </c>
       <c r="C137" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D137" s="1">
         <v>21.36645</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B138" t="s">
         <v>15</v>
@@ -2502,9 +2478,9 @@
         <v>17.355250000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B139" t="s">
         <v>15</v>
@@ -2516,9 +2492,9 @@
         <v>17.120100000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B140" t="s">
         <v>15</v>
@@ -2530,37 +2506,37 @@
         <v>16.202475</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B141" t="s">
         <v>15</v>
       </c>
       <c r="C141" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D141" s="1">
         <v>13.5169</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B142" t="s">
         <v>15</v>
       </c>
       <c r="C142" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D142" s="1">
         <v>8.3619000000000003</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B143" t="s">
         <v>15</v>
@@ -2572,9 +2548,9 @@
         <v>2.3957999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B144" t="s">
         <v>15</v>
@@ -2586,9 +2562,9 @@
         <v>1791.136023734</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B145" t="s">
         <v>16</v>
@@ -2600,9 +2576,9 @@
         <v>691.42874749999999</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B146" t="s">
         <v>16</v>
@@ -2614,23 +2590,23 @@
         <v>437.546178</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B147" t="s">
         <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D147" s="1">
         <v>398.44944659999999</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B148" t="s">
         <v>16</v>
@@ -2642,9 +2618,9 @@
         <v>85.158848000000006</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B149" t="s">
         <v>16</v>
@@ -2656,9 +2632,9 @@
         <v>56.339108600000003</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B150" t="s">
         <v>16</v>
@@ -2670,9 +2646,9 @@
         <v>50.207640599999998</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B151" t="s">
         <v>16</v>
@@ -2684,79 +2660,79 @@
         <v>48.181075200000002</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B152" t="s">
         <v>16</v>
       </c>
       <c r="C152" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D152" s="1">
         <v>48.151496999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B153" t="s">
         <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D153" s="1">
         <v>38.785400000000003</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B154" t="s">
         <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D154" s="1">
         <v>33.768990000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B155" t="s">
         <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D155" s="1">
         <v>27.742000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B156" t="s">
         <v>16</v>
       </c>
       <c r="C156" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D156" s="2">
         <v>26.166374399999999</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B157" t="s">
         <v>16</v>
@@ -2768,23 +2744,23 @@
         <v>312.90250348900003</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>59</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" t="s">
         <v>60</v>
-      </c>
-      <c r="B158" t="s">
-        <v>13</v>
-      </c>
-      <c r="C158" t="s">
-        <v>61</v>
       </c>
       <c r="D158" s="1">
         <v>537.23077231399998</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B159" t="s">
         <v>13</v>
@@ -2796,23 +2772,23 @@
         <v>1.2738610640000001</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>59</v>
+      </c>
+      <c r="B160" t="s">
+        <v>15</v>
+      </c>
+      <c r="C160" t="s">
         <v>60</v>
-      </c>
-      <c r="B160" t="s">
-        <v>15</v>
-      </c>
-      <c r="C160" t="s">
-        <v>61</v>
       </c>
       <c r="D160" s="1">
         <v>571.68737199999998</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B161" t="s">
         <v>15</v>
@@ -2824,9 +2800,9 @@
         <v>1.2426057850000001</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B162" t="s">
         <v>13</v>
@@ -2838,9 +2814,9 @@
         <v>81.770314499999998</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B163" t="s">
         <v>13</v>
@@ -2852,23 +2828,23 @@
         <v>114.13664420000001</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B164" t="s">
         <v>13</v>
       </c>
       <c r="C164" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D164" s="1">
         <v>74.028000000000006</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B165" t="s">
         <v>13</v>
@@ -2880,9 +2856,9 @@
         <v>334.50573044999999</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B166" t="s">
         <v>15</v>
@@ -2894,9 +2870,9 @@
         <v>82.876750000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B167" t="s">
         <v>15</v>
@@ -2908,9 +2884,9 @@
         <v>96.033543249999994</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B168" t="s">
         <v>15</v>
@@ -2922,9 +2898,9 @@
         <v>619.63735652000003</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B169" t="s">
         <v>16</v>
@@ -2936,9 +2912,9 @@
         <v>66.806430000000006</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B170" t="s">
         <v>16</v>
@@ -2950,23 +2926,23 @@
         <v>62.841739349999997</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B171" t="s">
         <v>16</v>
       </c>
       <c r="C171" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D171" s="1">
         <v>64.178100000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B172" t="s">
         <v>16</v>
@@ -2978,93 +2954,84 @@
         <v>462.98242733000001</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>62</v>
+      </c>
+      <c r="B173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" t="s">
         <v>63</v>
       </c>
-      <c r="B173" t="s">
-        <v>13</v>
-      </c>
-      <c r="C173" t="s">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>62</v>
+      </c>
+      <c r="B174" t="s">
+        <v>15</v>
+      </c>
+      <c r="C174" t="s">
         <v>64</v>
-      </c>
-      <c r="E173" s="1">
-        <v>38.06</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>63</v>
-      </c>
-      <c r="B174" t="s">
-        <v>15</v>
-      </c>
-      <c r="C174" t="s">
-        <v>65</v>
       </c>
       <c r="D174" s="1">
         <v>1.0325E-4</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>62</v>
+      </c>
+      <c r="B175" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" t="s">
         <v>63</v>
       </c>
-      <c r="B175" t="s">
-        <v>15</v>
-      </c>
-      <c r="C175" t="s">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>62</v>
+      </c>
+      <c r="B176" t="s">
+        <v>16</v>
+      </c>
+      <c r="C176" t="s">
         <v>64</v>
-      </c>
-      <c r="E175" s="1">
-        <v>35.64</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>63</v>
-      </c>
-      <c r="B176" t="s">
-        <v>16</v>
-      </c>
-      <c r="C176" t="s">
-        <v>65</v>
       </c>
       <c r="D176" s="1">
         <v>1.1900000000000001E-4</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>62</v>
+      </c>
+      <c r="B177" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" t="s">
         <v>63</v>
       </c>
-      <c r="B177" t="s">
-        <v>16</v>
-      </c>
-      <c r="C177" t="s">
-        <v>64</v>
-      </c>
-      <c r="E177" s="1">
-        <v>33.659999999999997</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>65</v>
+      </c>
+      <c r="B178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" t="s">
         <v>66</v>
-      </c>
-      <c r="B178" t="s">
-        <v>13</v>
-      </c>
-      <c r="C178" t="s">
-        <v>67</v>
       </c>
       <c r="D178" s="1">
         <v>64.729280000000003</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B179" t="s">
         <v>13</v>
@@ -3076,37 +3043,37 @@
         <v>4.1003119999999997</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B180" t="s">
         <v>15</v>
       </c>
       <c r="C180" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D180" s="1">
         <v>7.8800173759999996</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>65</v>
+      </c>
+      <c r="B181" t="s">
+        <v>15</v>
+      </c>
+      <c r="C181" t="s">
         <v>66</v>
-      </c>
-      <c r="B181" t="s">
-        <v>15</v>
-      </c>
-      <c r="C181" t="s">
-        <v>67</v>
       </c>
       <c r="D181" s="1">
         <v>57.4816</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B182" t="s">
         <v>15</v>
@@ -3118,23 +3085,23 @@
         <v>3.4080650000000001E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B183" t="s">
         <v>16</v>
       </c>
       <c r="C183" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D183" s="1">
         <v>9.5435766019999999</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B184" t="s">
         <v>16</v>
@@ -3146,217 +3113,217 @@
         <v>3.4080650000000001E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B185" t="s">
         <v>13</v>
       </c>
       <c r="C185" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D185" s="1">
         <v>127</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B186" t="s">
         <v>15</v>
       </c>
       <c r="C186" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D186" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B187" t="s">
         <v>16</v>
       </c>
       <c r="C187" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D187" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B188" t="s">
         <v>13</v>
       </c>
       <c r="C188" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D188" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B189" t="s">
         <v>15</v>
       </c>
       <c r="C189" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D189" s="1">
         <v>173</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B190" t="s">
         <v>16</v>
       </c>
       <c r="C190" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D190" s="1">
         <v>179</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B191" t="s">
         <v>13</v>
       </c>
       <c r="C191" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D191" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B192" t="s">
         <v>15</v>
       </c>
       <c r="C192" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D192" s="1">
         <v>283</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B193" t="s">
         <v>16</v>
       </c>
       <c r="C193" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D193" s="1">
         <v>285</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B194" t="s">
         <v>13</v>
       </c>
       <c r="C194" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D194" s="1">
         <v>262</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B195" t="s">
         <v>15</v>
       </c>
       <c r="C195" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D195" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B196" t="s">
         <v>16</v>
       </c>
       <c r="C196" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D196" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B197" t="s">
         <v>13</v>
       </c>
       <c r="C197" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D197" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B198" t="s">
         <v>15</v>
       </c>
       <c r="C198" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D198" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B199" t="s">
         <v>16</v>
       </c>
       <c r="C199" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D199" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>26</v>
       </c>
@@ -3364,13 +3331,13 @@
         <v>13</v>
       </c>
       <c r="C200" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D200" s="1">
         <v>463</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>26</v>
       </c>
@@ -3378,13 +3345,13 @@
         <v>15</v>
       </c>
       <c r="C201" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D201" s="1">
         <v>326</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>26</v>
       </c>
@@ -3392,98 +3359,98 @@
         <v>16</v>
       </c>
       <c r="C202" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D202" s="1">
         <v>287</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B203" t="s">
         <v>13</v>
       </c>
       <c r="C203" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D203" s="1">
         <v>1198</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B204" t="s">
         <v>15</v>
       </c>
       <c r="C204" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D204" s="1">
         <v>1047</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B205" t="s">
         <v>16</v>
       </c>
       <c r="C205" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D205" s="1">
         <v>555</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B206" t="s">
         <v>13</v>
       </c>
       <c r="C206" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D206" s="1">
         <v>488</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B207" t="s">
         <v>15</v>
       </c>
       <c r="C207" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D207" s="1">
         <v>478</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B208" t="s">
         <v>16</v>
       </c>
       <c r="C208" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D208" s="1">
         <v>275</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E208" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D208" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Prop book.xlsx
+++ b/Prop book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dragoncapitalvn-my.sharepoint.com/personal/thaodien_dragoncapital_com/Documents/Documents/GitHub/Project-broker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="669" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8E64A6B-AD1A-48B4-B9C2-851CACD7CA07}"/>
+  <xr:revisionPtr revIDLastSave="754" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4B75249-7417-4D4C-AF73-1BDA8D5B927E}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$208</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="74">
   <si>
     <t>Broker</t>
   </si>
@@ -243,6 +243,24 @@
   </si>
   <si>
     <t>OCB</t>
+  </si>
+  <si>
+    <t>VDS</t>
+  </si>
+  <si>
+    <t>KBC</t>
+  </si>
+  <si>
+    <t>CMG</t>
+  </si>
+  <si>
+    <t>QNS</t>
+  </si>
+  <si>
+    <t>DSE</t>
+  </si>
+  <si>
+    <t>AFS value</t>
   </si>
 </sst>
 </file>
@@ -564,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E208"/>
+  <dimension ref="A1:E238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +594,7 @@
     <col min="5" max="5" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -589,8 +607,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -600,11 +621,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>598.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -614,11 +635,11 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>81.7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -628,11 +649,11 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>1945.2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -643,7 +664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -653,11 +674,11 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>180.69</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -667,11 +688,11 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>3.3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -681,11 +702,11 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>232.999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -695,11 +716,11 @@
       <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>853</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -709,11 +730,11 @@
       <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>2756</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -723,11 +744,11 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>796.99</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -738,7 +759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -748,11 +769,11 @@
       <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>1882.8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -762,11 +783,11 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>11.73</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -776,11 +797,11 @@
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>297.25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -790,11 +811,11 @@
       <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>139.4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -804,11 +825,11 @@
       <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>803.12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -818,11 +839,11 @@
       <c r="C18" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>837.54</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -832,11 +853,11 @@
       <c r="C19" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>1673.2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -846,11 +867,11 @@
       <c r="C20" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>1184</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -861,7 +882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -871,11 +892,11 @@
       <c r="C22" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>2117.6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -886,7 +907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -896,11 +917,11 @@
       <c r="C24" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>12.33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -910,11 +931,11 @@
       <c r="C25" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>167.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -924,11 +945,11 @@
       <c r="C26" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>695.36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -938,11 +959,11 @@
       <c r="C27" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>772.4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -952,11 +973,11 @@
       <c r="C28" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>2070</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -970,7 +991,7 @@
         <v>172.64</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -984,7 +1005,7 @@
         <v>282.2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -998,7 +1019,7 @@
         <v>7.84</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -3447,6 +3468,426 @@
       </c>
       <c r="D208" s="1">
         <v>275</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>68</v>
+      </c>
+      <c r="B209" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209" t="s">
+        <v>69</v>
+      </c>
+      <c r="D209" s="1">
+        <v>291.53755000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>68</v>
+      </c>
+      <c r="B210" t="s">
+        <v>13</v>
+      </c>
+      <c r="C210" t="s">
+        <v>43</v>
+      </c>
+      <c r="D210" s="1">
+        <v>97.599699999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>68</v>
+      </c>
+      <c r="B211" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211" t="s">
+        <v>47</v>
+      </c>
+      <c r="D211" s="1">
+        <v>139.96039999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>68</v>
+      </c>
+      <c r="B212" t="s">
+        <v>13</v>
+      </c>
+      <c r="C212" t="s">
+        <v>45</v>
+      </c>
+      <c r="D212" s="1">
+        <v>126.0891627</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>68</v>
+      </c>
+      <c r="B213" t="s">
+        <v>13</v>
+      </c>
+      <c r="C213" t="s">
+        <v>14</v>
+      </c>
+      <c r="D213" s="1">
+        <v>484.16045324999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>68</v>
+      </c>
+      <c r="B214" t="s">
+        <v>13</v>
+      </c>
+      <c r="C214" t="s">
+        <v>70</v>
+      </c>
+      <c r="E214" s="1">
+        <v>97.860349999999997</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>68</v>
+      </c>
+      <c r="B215" t="s">
+        <v>13</v>
+      </c>
+      <c r="C215" t="s">
+        <v>5</v>
+      </c>
+      <c r="E215" s="1">
+        <v>118.3644</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>68</v>
+      </c>
+      <c r="B216" t="s">
+        <v>13</v>
+      </c>
+      <c r="C216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" s="1">
+        <v>40.125</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>68</v>
+      </c>
+      <c r="B217" t="s">
+        <v>13</v>
+      </c>
+      <c r="C217" t="s">
+        <v>38</v>
+      </c>
+      <c r="D217" s="1">
+        <v>-17.442687286000002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>68</v>
+      </c>
+      <c r="B218" t="s">
+        <v>15</v>
+      </c>
+      <c r="C218" t="s">
+        <v>69</v>
+      </c>
+      <c r="D218" s="1">
+        <v>319.48334</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>68</v>
+      </c>
+      <c r="B219" t="s">
+        <v>15</v>
+      </c>
+      <c r="C219" t="s">
+        <v>14</v>
+      </c>
+      <c r="D219" s="1">
+        <v>1110.0100874</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>68</v>
+      </c>
+      <c r="B220" t="s">
+        <v>15</v>
+      </c>
+      <c r="C220" t="s">
+        <v>5</v>
+      </c>
+      <c r="E220" s="1">
+        <v>131.24760000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>68</v>
+      </c>
+      <c r="B221" t="s">
+        <v>15</v>
+      </c>
+      <c r="C221" t="s">
+        <v>70</v>
+      </c>
+      <c r="E221" s="1">
+        <v>77.801199999999994</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>68</v>
+      </c>
+      <c r="B222" t="s">
+        <v>15</v>
+      </c>
+      <c r="C222" t="s">
+        <v>71</v>
+      </c>
+      <c r="E222" s="1">
+        <v>49.610999999999997</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>68</v>
+      </c>
+      <c r="B223" t="s">
+        <v>15</v>
+      </c>
+      <c r="C223" t="s">
+        <v>47</v>
+      </c>
+      <c r="E223" s="1">
+        <v>36.58</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>68</v>
+      </c>
+      <c r="B224" t="s">
+        <v>15</v>
+      </c>
+      <c r="C224" t="s">
+        <v>38</v>
+      </c>
+      <c r="D224" s="1">
+        <v>22.643851017999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>68</v>
+      </c>
+      <c r="B225" t="s">
+        <v>16</v>
+      </c>
+      <c r="C225" t="s">
+        <v>46</v>
+      </c>
+      <c r="D225" s="1">
+        <v>147.13238000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>68</v>
+      </c>
+      <c r="B226" t="s">
+        <v>16</v>
+      </c>
+      <c r="C226" t="s">
+        <v>43</v>
+      </c>
+      <c r="D226" s="1">
+        <v>102.867975</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>68</v>
+      </c>
+      <c r="B227" t="s">
+        <v>16</v>
+      </c>
+      <c r="C227" t="s">
+        <v>39</v>
+      </c>
+      <c r="D227" s="1">
+        <v>125.2624716</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>68</v>
+      </c>
+      <c r="B228" t="s">
+        <v>16</v>
+      </c>
+      <c r="C228" t="s">
+        <v>45</v>
+      </c>
+      <c r="D228" s="1">
+        <v>129.71071259999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>68</v>
+      </c>
+      <c r="B229" t="s">
+        <v>16</v>
+      </c>
+      <c r="C229" t="s">
+        <v>47</v>
+      </c>
+      <c r="D229" s="1">
+        <v>127.5998</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>68</v>
+      </c>
+      <c r="B230" t="s">
+        <v>16</v>
+      </c>
+      <c r="C230" t="s">
+        <v>14</v>
+      </c>
+      <c r="D230" s="1">
+        <v>466.77496559999997</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>68</v>
+      </c>
+      <c r="B231" t="s">
+        <v>16</v>
+      </c>
+      <c r="C231" t="s">
+        <v>69</v>
+      </c>
+      <c r="E231" s="1">
+        <v>270.72160000000002</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>68</v>
+      </c>
+      <c r="B232" t="s">
+        <v>16</v>
+      </c>
+      <c r="C232" t="s">
+        <v>5</v>
+      </c>
+      <c r="E232" s="1">
+        <v>145.33860000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>68</v>
+      </c>
+      <c r="B233" t="s">
+        <v>16</v>
+      </c>
+      <c r="C233" t="s">
+        <v>71</v>
+      </c>
+      <c r="E233" s="1">
+        <v>50.883000000000003</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>68</v>
+      </c>
+      <c r="B234" t="s">
+        <v>16</v>
+      </c>
+      <c r="C234" t="s">
+        <v>14</v>
+      </c>
+      <c r="E234" s="1">
+        <v>62.96705</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>68</v>
+      </c>
+      <c r="B235" t="s">
+        <v>16</v>
+      </c>
+      <c r="C235" t="s">
+        <v>38</v>
+      </c>
+      <c r="D235" s="1">
+        <v>-33.634174170000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>72</v>
+      </c>
+      <c r="B236" t="s">
+        <v>13</v>
+      </c>
+      <c r="C236" t="s">
+        <v>38</v>
+      </c>
+      <c r="D236" s="1">
+        <v>91.021986687999998</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>72</v>
+      </c>
+      <c r="B237" t="s">
+        <v>15</v>
+      </c>
+      <c r="C237" t="s">
+        <v>38</v>
+      </c>
+      <c r="D237" s="1">
+        <v>66.466997524000007</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>72</v>
+      </c>
+      <c r="B238" t="s">
+        <v>16</v>
+      </c>
+      <c r="C238" t="s">
+        <v>38</v>
+      </c>
+      <c r="D238" s="1">
+        <v>41.544733348999998</v>
       </c>
     </row>
   </sheetData>

--- a/Prop book.xlsx
+++ b/Prop book.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dragoncapitalvn-my.sharepoint.com/personal/thaodien_dragoncapital_com/Documents/Documents/GitHub/Project-broker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="754" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4B75249-7417-4D4C-AF73-1BDA8D5B927E}"/>
+  <xr:revisionPtr revIDLastSave="761" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EF9D7A3-B7FC-4291-B6D8-3A18FC6B5102}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1815" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$208</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$238</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="75">
   <si>
     <t>Broker</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>AFS value</t>
+  </si>
+  <si>
+    <t>Others AFS</t>
   </si>
 </sst>
 </file>
@@ -317,6 +320,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -582,19 +589,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K233" sqref="K233"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +619,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -625,7 +633,7 @@
         <v>598.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -639,7 +647,7 @@
         <v>81.7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -653,7 +661,7 @@
         <v>1945.2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -664,7 +672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -678,7 +686,7 @@
         <v>180.69</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -692,7 +700,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -706,7 +714,7 @@
         <v>232.999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -720,7 +728,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -728,13 +736,13 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="E10" s="1">
         <v>2756</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -748,7 +756,7 @@
         <v>796.99</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -759,7 +767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -773,7 +781,7 @@
         <v>1882.8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -787,7 +795,7 @@
         <v>11.73</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -801,7 +809,7 @@
         <v>297.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -815,7 +823,7 @@
         <v>139.4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -829,7 +837,7 @@
         <v>803.12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -843,7 +851,7 @@
         <v>837.54</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -851,13 +859,13 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="E19" s="1">
         <v>1673.2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -871,7 +879,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -882,7 +890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -896,7 +904,7 @@
         <v>2117.6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -907,7 +915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -921,7 +929,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -935,7 +943,7 @@
         <v>167.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -949,7 +957,7 @@
         <v>695.36</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -963,7 +971,7 @@
         <v>772.4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -971,13 +979,13 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="E28" s="1">
         <v>2070</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -991,7 +999,7 @@
         <v>172.64</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1005,7 +1013,7 @@
         <v>282.2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1019,7 +1027,7 @@
         <v>7.84</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1033,7 +1041,7 @@
         <v>64.372</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1047,7 +1055,7 @@
         <v>105.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -1061,7 +1069,7 @@
         <v>87.8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1075,7 +1083,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1089,7 +1097,7 @@
         <v>287.54000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -1103,7 +1111,7 @@
         <v>177.85</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -1117,7 +1125,7 @@
         <v>426.74</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -1131,7 +1139,7 @@
         <v>252.98500000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1145,7 +1153,7 @@
         <v>98.06</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -1159,7 +1167,7 @@
         <v>4143.6000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -1170,7 +1178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -1181,7 +1189,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -1195,7 +1203,7 @@
         <v>189.8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1209,7 +1217,7 @@
         <v>106.4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1223,7 +1231,7 @@
         <v>204.8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1237,7 +1245,7 @@
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -1251,7 +1259,7 @@
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -1265,7 +1273,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1279,7 +1287,7 @@
         <v>170.9</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -1293,7 +1301,7 @@
         <v>238.4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -1307,7 +1315,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -1321,7 +1329,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -1335,7 +1343,7 @@
         <v>71.3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -1349,7 +1357,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -1363,7 +1371,7 @@
         <v>178.9</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -1377,7 +1385,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -1391,7 +1399,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -1405,7 +1413,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -1419,7 +1427,7 @@
         <v>734.97</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -1433,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -1447,7 +1455,7 @@
         <v>683.3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>22</v>
       </c>
@@ -1461,7 +1469,7 @@
         <v>428.9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>22</v>
       </c>
@@ -1475,7 +1483,7 @@
         <v>4362.4489999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -1489,7 +1497,7 @@
         <v>684.67200000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>22</v>
       </c>
@@ -1503,7 +1511,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>22</v>
       </c>
@@ -1517,7 +1525,7 @@
         <v>298.214</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>26</v>
       </c>
@@ -1531,7 +1539,7 @@
         <v>462.96722006800002</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>22</v>
       </c>
@@ -1545,7 +1553,7 @@
         <v>1602.5073289380002</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>26</v>
       </c>
@@ -1559,7 +1567,7 @@
         <v>281.90273591299996</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -1573,7 +1581,7 @@
         <v>325.68608381000001</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>22</v>
       </c>
@@ -1587,7 +1595,7 @@
         <v>133.6666776649999</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -1601,7 +1609,7 @@
         <v>465.20486131000007</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -1615,7 +1623,7 @@
         <v>73.276574532000055</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -1629,7 +1637,7 @@
         <v>132.5779621770001</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -1643,7 +1651,7 @@
         <v>217.38459526100004</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -1657,7 +1665,7 @@
         <v>253.33511597899994</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -1671,7 +1679,7 @@
         <v>355.10702067799997</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -1685,7 +1693,7 @@
         <v>211.49055106</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -1699,7 +1707,7 @@
         <v>313.72500000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -1713,7 +1721,7 @@
         <v>252.69882000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -1727,7 +1735,7 @@
         <v>131.61000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -1741,7 +1749,7 @@
         <v>115.5</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -1755,7 +1763,7 @@
         <v>80.653409999999994</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -1769,7 +1777,7 @@
         <v>4593.8958050000001</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -1780,7 +1788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -1791,7 +1799,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>26</v>
       </c>
@@ -1805,7 +1813,7 @@
         <v>385.00864000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>26</v>
       </c>
@@ -1819,7 +1827,7 @@
         <v>204.87155000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -1833,7 +1841,7 @@
         <v>449.16890000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>26</v>
       </c>
@@ -1847,7 +1855,7 @@
         <v>298.416</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>26</v>
       </c>
@@ -1861,7 +1869,7 @@
         <v>2868.1795425969999</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>26</v>
       </c>
@@ -1872,7 +1880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -1883,7 +1891,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>42</v>
       </c>
@@ -1897,7 +1905,7 @@
         <v>471.11800299999999</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>42</v>
       </c>
@@ -1911,7 +1919,7 @@
         <v>444.90018559999999</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>42</v>
       </c>
@@ -1925,7 +1933,7 @@
         <v>194.95070833</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>42</v>
       </c>
@@ -1939,7 +1947,7 @@
         <v>459.73992199999998</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>42</v>
       </c>
@@ -1953,7 +1961,7 @@
         <v>105.4291377</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>42</v>
       </c>
@@ -1967,7 +1975,7 @@
         <v>112.9934461</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>42</v>
       </c>
@@ -1981,7 +1989,7 @@
         <v>795.19149128900006</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>42</v>
       </c>
@@ -1995,7 +2003,7 @@
         <v>418.20360959999999</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>42</v>
       </c>
@@ -2009,7 +2017,7 @@
         <v>379.16809019999999</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>42</v>
       </c>
@@ -2023,7 +2031,7 @@
         <v>641.44849673199997</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>44</v>
       </c>
@@ -2037,7 +2045,7 @@
         <v>495.18126749999999</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>44</v>
       </c>
@@ -2051,7 +2059,7 @@
         <v>41.564160000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>44</v>
       </c>
@@ -2065,7 +2073,7 @@
         <v>34.574301900000002</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>44</v>
       </c>
@@ -2079,7 +2087,7 @@
         <v>17.764817699999998</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>44</v>
       </c>
@@ -2093,7 +2101,7 @@
         <v>377.74047731399997</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>44</v>
       </c>
@@ -2107,7 +2115,7 @@
         <v>47.814399999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>44</v>
       </c>
@@ -2121,7 +2129,7 @@
         <v>105.3778854</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>44</v>
       </c>
@@ -2135,7 +2143,7 @@
         <v>45.304979000000003</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>44</v>
       </c>
@@ -2149,7 +2157,7 @@
         <v>883.491355</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>44</v>
       </c>
@@ -2163,7 +2171,7 @@
         <v>329.83531951999998</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>44</v>
       </c>
@@ -2177,7 +2185,7 @@
         <v>56.4498575</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>44</v>
       </c>
@@ -2191,7 +2199,7 @@
         <v>48.783651149999997</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>44</v>
       </c>
@@ -2205,7 +2213,7 @@
         <v>53.905700000000003</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>44</v>
       </c>
@@ -2219,7 +2227,7 @@
         <v>897.44555519999994</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>44</v>
       </c>
@@ -2233,7 +2241,7 @@
         <v>567.41111581400003</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>48</v>
       </c>
@@ -2247,7 +2255,7 @@
         <v>1219.89348</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>48</v>
       </c>
@@ -2261,7 +2269,7 @@
         <v>891.07434000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>48</v>
       </c>
@@ -2275,7 +2283,7 @@
         <v>386.46965</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>48</v>
       </c>
@@ -2289,7 +2297,7 @@
         <v>376.3553</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>48</v>
       </c>
@@ -2303,7 +2311,7 @@
         <v>258.97612800000002</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>48</v>
       </c>
@@ -2317,7 +2325,7 @@
         <v>157.063692</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>48</v>
       </c>
@@ -2331,7 +2339,7 @@
         <v>80.896979999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>48</v>
       </c>
@@ -2345,7 +2353,7 @@
         <v>66.592600000000004</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>48</v>
       </c>
@@ -2359,7 +2367,7 @@
         <v>35.567970000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>48</v>
       </c>
@@ -2373,7 +2381,7 @@
         <v>32.722560000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>48</v>
       </c>
@@ -2387,7 +2395,7 @@
         <v>76.413469636000002</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>48</v>
       </c>
@@ -2401,7 +2409,7 @@
         <v>51.984900000000003</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>48</v>
       </c>
@@ -2415,7 +2423,7 @@
         <v>54.700949999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>48</v>
       </c>
@@ -2429,7 +2437,7 @@
         <v>43.162300000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>48</v>
       </c>
@@ -2443,7 +2451,7 @@
         <v>37.572000000000003</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>48</v>
       </c>
@@ -2457,7 +2465,7 @@
         <v>26.318750000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>48</v>
       </c>
@@ -2471,7 +2479,7 @@
         <v>24.028199999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>48</v>
       </c>
@@ -2485,7 +2493,7 @@
         <v>21.36645</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>48</v>
       </c>
@@ -2499,7 +2507,7 @@
         <v>17.355250000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>48</v>
       </c>
@@ -2513,7 +2521,7 @@
         <v>17.120100000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>48</v>
       </c>
@@ -2527,7 +2535,7 @@
         <v>16.202475</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>48</v>
       </c>
@@ -2541,7 +2549,7 @@
         <v>13.5169</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>48</v>
       </c>
@@ -2555,7 +2563,7 @@
         <v>8.3619000000000003</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>48</v>
       </c>
@@ -2569,7 +2577,7 @@
         <v>2.3957999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>48</v>
       </c>
@@ -2583,7 +2591,7 @@
         <v>1791.136023734</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>48</v>
       </c>
@@ -2597,7 +2605,7 @@
         <v>691.42874749999999</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>48</v>
       </c>
@@ -2611,7 +2619,7 @@
         <v>437.546178</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>48</v>
       </c>
@@ -2625,7 +2633,7 @@
         <v>398.44944659999999</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>48</v>
       </c>
@@ -2639,7 +2647,7 @@
         <v>85.158848000000006</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>48</v>
       </c>
@@ -2653,7 +2661,7 @@
         <v>56.339108600000003</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>48</v>
       </c>
@@ -2667,7 +2675,7 @@
         <v>50.207640599999998</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>48</v>
       </c>
@@ -2681,7 +2689,7 @@
         <v>48.181075200000002</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>48</v>
       </c>
@@ -2695,7 +2703,7 @@
         <v>48.151496999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>48</v>
       </c>
@@ -2709,7 +2717,7 @@
         <v>38.785400000000003</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>48</v>
       </c>
@@ -2723,7 +2731,7 @@
         <v>33.768990000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>48</v>
       </c>
@@ -2737,7 +2745,7 @@
         <v>27.742000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>48</v>
       </c>
@@ -2751,7 +2759,7 @@
         <v>26.166374399999999</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>48</v>
       </c>
@@ -2765,7 +2773,7 @@
         <v>312.90250348900003</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>59</v>
       </c>
@@ -2779,7 +2787,7 @@
         <v>537.23077231399998</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>59</v>
       </c>
@@ -2793,7 +2801,7 @@
         <v>1.2738610640000001</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>59</v>
       </c>
@@ -2807,7 +2815,7 @@
         <v>571.68737199999998</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>59</v>
       </c>
@@ -2821,7 +2829,7 @@
         <v>1.2426057850000001</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>61</v>
       </c>
@@ -2835,7 +2843,7 @@
         <v>81.770314499999998</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>61</v>
       </c>
@@ -2849,7 +2857,7 @@
         <v>114.13664420000001</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>61</v>
       </c>
@@ -2863,7 +2871,7 @@
         <v>74.028000000000006</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>61</v>
       </c>
@@ -2877,7 +2885,7 @@
         <v>334.50573044999999</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>61</v>
       </c>
@@ -2891,7 +2899,7 @@
         <v>82.876750000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>61</v>
       </c>
@@ -2905,7 +2913,7 @@
         <v>96.033543249999994</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>61</v>
       </c>
@@ -2919,7 +2927,7 @@
         <v>619.63735652000003</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>61</v>
       </c>
@@ -2933,7 +2941,7 @@
         <v>66.806430000000006</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>61</v>
       </c>
@@ -2947,7 +2955,7 @@
         <v>62.841739349999997</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>61</v>
       </c>
@@ -2961,7 +2969,7 @@
         <v>64.178100000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>61</v>
       </c>
@@ -2975,7 +2983,7 @@
         <v>462.98242733000001</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>62</v>
       </c>
@@ -2986,7 +2994,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>62</v>
       </c>
@@ -3000,7 +3008,7 @@
         <v>1.0325E-4</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>62</v>
       </c>
@@ -3011,7 +3019,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>62</v>
       </c>
@@ -3025,7 +3033,7 @@
         <v>1.1900000000000001E-4</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>62</v>
       </c>
@@ -3036,7 +3044,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>65</v>
       </c>
@@ -3050,7 +3058,7 @@
         <v>64.729280000000003</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>65</v>
       </c>
@@ -3064,7 +3072,7 @@
         <v>4.1003119999999997</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>65</v>
       </c>
@@ -3078,7 +3086,7 @@
         <v>7.8800173759999996</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>65</v>
       </c>
@@ -3092,7 +3100,7 @@
         <v>57.4816</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>65</v>
       </c>
@@ -3106,7 +3114,7 @@
         <v>3.4080650000000001E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>65</v>
       </c>
@@ -3120,7 +3128,7 @@
         <v>9.5435766019999999</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>65</v>
       </c>
@@ -3134,7 +3142,7 @@
         <v>3.4080650000000001E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>61</v>
       </c>
@@ -3148,7 +3156,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>61</v>
       </c>
@@ -3162,7 +3170,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>61</v>
       </c>
@@ -3176,7 +3184,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>59</v>
       </c>
@@ -3190,7 +3198,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>59</v>
       </c>
@@ -3204,7 +3212,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>59</v>
       </c>
@@ -3218,7 +3226,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>48</v>
       </c>
@@ -3232,7 +3240,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>48</v>
       </c>
@@ -3246,7 +3254,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>48</v>
       </c>
@@ -3260,7 +3268,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>62</v>
       </c>
@@ -3274,7 +3282,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>62</v>
       </c>
@@ -3288,7 +3296,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>62</v>
       </c>
@@ -3302,7 +3310,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>65</v>
       </c>
@@ -3316,7 +3324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>65</v>
       </c>
@@ -3330,7 +3338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>65</v>
       </c>
@@ -3344,7 +3352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>26</v>
       </c>
@@ -3358,7 +3366,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>26</v>
       </c>
@@ -3372,7 +3380,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>26</v>
       </c>
@@ -3386,7 +3394,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>44</v>
       </c>
@@ -3400,7 +3408,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>44</v>
       </c>
@@ -3414,7 +3422,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>44</v>
       </c>
@@ -3428,7 +3436,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>42</v>
       </c>
@@ -3442,7 +3450,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>42</v>
       </c>
@@ -3456,7 +3464,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>42</v>
       </c>
@@ -3470,7 +3478,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>68</v>
       </c>
@@ -3484,7 +3492,7 @@
         <v>291.53755000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>68</v>
       </c>
@@ -3498,7 +3506,7 @@
         <v>97.599699999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>68</v>
       </c>
@@ -3512,7 +3520,7 @@
         <v>139.96039999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>68</v>
       </c>
@@ -3526,7 +3534,7 @@
         <v>126.0891627</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>68</v>
       </c>
@@ -3540,7 +3548,7 @@
         <v>484.16045324999999</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>68</v>
       </c>
@@ -3554,7 +3562,7 @@
         <v>97.860349999999997</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>68</v>
       </c>
@@ -3568,7 +3576,7 @@
         <v>118.3644</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>68</v>
       </c>
@@ -3582,7 +3590,7 @@
         <v>40.125</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>68</v>
       </c>
@@ -3596,7 +3604,7 @@
         <v>-17.442687286000002</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>68</v>
       </c>
@@ -3610,7 +3618,7 @@
         <v>319.48334</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>68</v>
       </c>
@@ -3624,7 +3632,7 @@
         <v>1110.0100874</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>68</v>
       </c>
@@ -3638,7 +3646,7 @@
         <v>131.24760000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>68</v>
       </c>
@@ -3652,7 +3660,7 @@
         <v>77.801199999999994</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>68</v>
       </c>
@@ -3666,7 +3674,7 @@
         <v>49.610999999999997</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>68</v>
       </c>
@@ -3680,7 +3688,7 @@
         <v>36.58</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>68</v>
       </c>
@@ -3694,7 +3702,7 @@
         <v>22.643851017999999</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>68</v>
       </c>
@@ -3708,7 +3716,7 @@
         <v>147.13238000000001</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>68</v>
       </c>
@@ -3722,7 +3730,7 @@
         <v>102.867975</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>68</v>
       </c>
@@ -3736,7 +3744,7 @@
         <v>125.2624716</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>68</v>
       </c>
@@ -3750,7 +3758,7 @@
         <v>129.71071259999999</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>68</v>
       </c>
@@ -3764,7 +3772,7 @@
         <v>127.5998</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>68</v>
       </c>
@@ -3778,7 +3786,7 @@
         <v>466.77496559999997</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>68</v>
       </c>
@@ -3792,7 +3800,7 @@
         <v>270.72160000000002</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>68</v>
       </c>
@@ -3806,7 +3814,7 @@
         <v>145.33860000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>68</v>
       </c>
@@ -3820,7 +3828,7 @@
         <v>50.883000000000003</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>68</v>
       </c>
@@ -3828,13 +3836,13 @@
         <v>16</v>
       </c>
       <c r="C234" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="E234" s="1">
         <v>62.96705</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>68</v>
       </c>
@@ -3848,7 +3856,7 @@
         <v>-33.634174170000001</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>72</v>
       </c>
@@ -3862,7 +3870,7 @@
         <v>91.021986687999998</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>72</v>
       </c>
@@ -3876,7 +3884,7 @@
         <v>66.466997524000007</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>72</v>
       </c>
@@ -3891,7 +3899,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D208" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E238" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Prop book.xlsx
+++ b/Prop book.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$238</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -320,10 +320,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -593,7 +589,7 @@
   <dimension ref="A1:E238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K233" sqref="K233"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Prop book.xlsx
+++ b/Prop book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dragoncapitalvn-my.sharepoint.com/personal/thaodien_dragoncapital_com/Documents/Documents/GitHub/Project-broker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="761" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EF9D7A3-B7FC-4291-B6D8-3A18FC6B5102}"/>
+  <xr:revisionPtr revIDLastSave="765" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{063B87C5-CA03-4FD3-BC68-0F74BB69AC03}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1815" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,7 +263,7 @@
     <t>AFS value</t>
   </si>
   <si>
-    <t>Others AFS</t>
+    <t>Other AFS</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A1:E238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C239" sqref="C239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Prop book.xlsx
+++ b/Prop book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dragoncapitalvn-my.sharepoint.com/personal/thaodien_dragoncapital_com/Documents/Documents/GitHub/Project-broker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="765" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{063B87C5-CA03-4FD3-BC68-0F74BB69AC03}"/>
+  <xr:revisionPtr revIDLastSave="791" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8470B1FE-C6EA-4435-B175-1CB41E1EE88D}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1815" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$238</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191028" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="76">
   <si>
     <t>Broker</t>
   </si>
@@ -53,9 +53,15 @@
     <t>FVTPL value</t>
   </si>
   <si>
+    <t>AFS value</t>
+  </si>
+  <si>
     <t>VCI</t>
   </si>
   <si>
+    <t>2Q25</t>
+  </si>
+  <si>
     <t>KDH</t>
   </si>
   <si>
@@ -80,37 +86,40 @@
     <t>TDM</t>
   </si>
   <si>
-    <t>2Q25</t>
+    <t>Other AFS</t>
+  </si>
+  <si>
+    <t>1Q25</t>
+  </si>
+  <si>
+    <t>4Q24</t>
+  </si>
+  <si>
+    <t>CTS</t>
+  </si>
+  <si>
+    <t>VSC</t>
+  </si>
+  <si>
+    <t>EIB</t>
+  </si>
+  <si>
+    <t>GEX</t>
+  </si>
+  <si>
+    <t>VPB</t>
+  </si>
+  <si>
+    <t>VIX</t>
+  </si>
+  <si>
+    <t>PET</t>
   </si>
   <si>
     <t>Others</t>
   </si>
   <si>
-    <t>1Q25</t>
-  </si>
-  <si>
-    <t>4Q24</t>
-  </si>
-  <si>
-    <t>CTS</t>
-  </si>
-  <si>
-    <t>VSC</t>
-  </si>
-  <si>
-    <t>EIB</t>
-  </si>
-  <si>
-    <t>GEX</t>
-  </si>
-  <si>
-    <t>VPB</t>
-  </si>
-  <si>
-    <t>VIX</t>
-  </si>
-  <si>
-    <t>PET</t>
+    <t>SHS</t>
   </si>
   <si>
     <t>TCB</t>
@@ -119,9 +128,6 @@
     <t>HPG</t>
   </si>
   <si>
-    <t>SHS</t>
-  </si>
-  <si>
     <t>SHB</t>
   </si>
   <si>
@@ -260,10 +266,7 @@
     <t>DSE</t>
   </si>
   <si>
-    <t>AFS value</t>
-  </si>
-  <si>
-    <t>Other AFS</t>
+    <t>PC1</t>
   </si>
 </sst>
 </file>
@@ -586,10 +589,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E238"/>
+  <dimension ref="A1:E247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C239" sqref="C239"/>
+      <selection activeCell="J242" sqref="J242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -612,46 +615,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
         <v>598.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
         <v>81.7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1">
         <v>1945.2</v>
@@ -659,94 +662,94 @@
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1">
         <v>180.69</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1">
         <v>3.3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
       </c>
       <c r="E8" s="1">
         <v>232.999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1">
         <v>853</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1">
         <v>2756</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1">
         <v>796.99</v>
@@ -754,122 +757,122 @@
     </row>
     <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1">
         <v>1882.8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1">
         <v>11.73</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1">
         <v>297.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1">
         <v>139.4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1">
         <v>803.12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E18" s="1">
         <v>837.54</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
         <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>74</v>
       </c>
       <c r="E19" s="1">
         <v>1673.2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E20" s="1">
         <v>1184</v>
@@ -877,24 +880,24 @@
     </row>
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E22" s="1">
         <v>2117.6</v>
@@ -902,80 +905,80 @@
     </row>
     <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E24" s="1">
         <v>12.33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E25" s="1">
         <v>167.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E26" s="1">
         <v>695.36</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E27" s="1">
         <v>772.4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="E28" s="1">
         <v>2070</v>
@@ -983,13 +986,13 @@
     </row>
     <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29" s="1">
         <v>172.64</v>
@@ -997,13 +1000,13 @@
     </row>
     <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30" s="1">
         <v>282.2</v>
@@ -1011,13 +1014,13 @@
     </row>
     <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D31" s="1">
         <v>7.84</v>
@@ -1025,13 +1028,13 @@
     </row>
     <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D32" s="1">
         <v>64.372</v>
@@ -1039,13 +1042,13 @@
     </row>
     <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D33" s="1">
         <v>105.5</v>
@@ -1053,13 +1056,13 @@
     </row>
     <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D34" s="1">
         <v>87.8</v>
@@ -1067,13 +1070,13 @@
     </row>
     <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D35" s="1">
         <v>0.14000000000000001</v>
@@ -1084,10 +1087,10 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D36" s="1">
         <v>287.54000000000002</v>
@@ -1098,10 +1101,10 @@
         <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D37" s="1">
         <v>177.85</v>
@@ -1112,10 +1115,10 @@
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D38" s="1">
         <v>426.74</v>
@@ -1126,10 +1129,10 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
         <v>13</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
       </c>
       <c r="D39" s="1">
         <v>252.98500000000001</v>
@@ -1140,10 +1143,10 @@
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D40" s="1">
         <v>98.06</v>
@@ -1154,10 +1157,10 @@
         <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D41" s="1">
         <v>4143.6000000000004</v>
@@ -1168,10 +1171,10 @@
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
@@ -1179,21 +1182,21 @@
         <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D44" s="1">
         <v>189.8</v>
@@ -1201,13 +1204,13 @@
     </row>
     <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D45" s="1">
         <v>106.4</v>
@@ -1215,13 +1218,13 @@
     </row>
     <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D46" s="1">
         <v>204.8</v>
@@ -1229,13 +1232,13 @@
     </row>
     <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D47" s="1">
         <v>79.099999999999994</v>
@@ -1243,13 +1246,13 @@
     </row>
     <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D48" s="1">
         <v>70.599999999999994</v>
@@ -1257,13 +1260,13 @@
     </row>
     <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D49" s="1">
         <v>0.1</v>
@@ -1271,13 +1274,13 @@
     </row>
     <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D50" s="1">
         <v>170.9</v>
@@ -1285,13 +1288,13 @@
     </row>
     <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D51" s="1">
         <v>238.4</v>
@@ -1299,13 +1302,13 @@
     </row>
     <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D52" s="1">
         <v>123</v>
@@ -1313,13 +1316,13 @@
     </row>
     <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D53" s="1">
         <v>91.6</v>
@@ -1327,13 +1330,13 @@
     </row>
     <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D54" s="1">
         <v>71.3</v>
@@ -1341,13 +1344,13 @@
     </row>
     <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D55" s="1">
         <v>47.6</v>
@@ -1355,13 +1358,13 @@
     </row>
     <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D56" s="1">
         <v>178.9</v>
@@ -1369,153 +1372,153 @@
     </row>
     <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D57" s="1">
         <v>10.3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D58" s="1">
         <v>1635</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D59" s="1">
         <v>787</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D60" s="1">
         <v>734.97</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D62" s="1">
         <v>683.3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D63" s="1">
         <v>428.9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D64" s="1">
         <v>4362.4489999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D65" s="1">
         <v>684.67200000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D66" s="1">
         <v>873</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C67" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D67" s="1">
         <v>298.214</v>
@@ -1526,24 +1529,24 @@
         <v>26</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D68" s="1">
         <v>462.96722006800002</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D69" s="1">
         <v>1602.5073289380002</v>
@@ -1554,10 +1557,10 @@
         <v>26</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C70" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D70" s="1">
         <v>281.90273591299996</v>
@@ -1568,38 +1571,38 @@
         <v>26</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D71" s="1">
         <v>325.68608381000001</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C72" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D72" s="1">
         <v>133.6666776649999</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D73" s="1">
         <v>465.20486131000007</v>
@@ -1607,13 +1610,13 @@
     </row>
     <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D74" s="1">
         <v>73.276574532000055</v>
@@ -1621,13 +1624,13 @@
     </row>
     <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D75" s="1">
         <v>132.5779621770001</v>
@@ -1635,13 +1638,13 @@
     </row>
     <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D76" s="1">
         <v>217.38459526100004</v>
@@ -1649,13 +1652,13 @@
     </row>
     <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D77" s="1">
         <v>253.33511597899994</v>
@@ -1663,13 +1666,13 @@
     </row>
     <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D78" s="1">
         <v>355.10702067799997</v>
@@ -1677,13 +1680,13 @@
     </row>
     <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D79" s="1">
         <v>211.49055106</v>
@@ -1694,10 +1697,10 @@
         <v>26</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D80" s="1">
         <v>313.72500000000002</v>
@@ -1708,10 +1711,10 @@
         <v>26</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D81" s="1">
         <v>252.69882000000001</v>
@@ -1722,10 +1725,10 @@
         <v>26</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D82" s="1">
         <v>131.61000000000001</v>
@@ -1736,10 +1739,10 @@
         <v>26</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D83" s="1">
         <v>115.5</v>
@@ -1750,10 +1753,10 @@
         <v>26</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D84" s="1">
         <v>80.653409999999994</v>
@@ -1764,10 +1767,10 @@
         <v>26</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D85" s="1">
         <v>4593.8958050000001</v>
@@ -1778,10 +1781,10 @@
         <v>26</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
@@ -1789,10 +1792,10 @@
         <v>26</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
@@ -1800,10 +1803,10 @@
         <v>26</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D88" s="1">
         <v>385.00864000000001</v>
@@ -1814,10 +1817,10 @@
         <v>26</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D89" s="1">
         <v>204.87155000000001</v>
@@ -1828,10 +1831,10 @@
         <v>26</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C90" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D90" s="1">
         <v>449.16890000000001</v>
@@ -1842,10 +1845,10 @@
         <v>26</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D91" s="1">
         <v>298.416</v>
@@ -1856,10 +1859,10 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D92" s="1">
         <v>2868.1795425969999</v>
@@ -1870,10 +1873,10 @@
         <v>26</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
@@ -1881,21 +1884,21 @@
         <v>26</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D95" s="1">
         <v>471.11800299999999</v>
@@ -1903,13 +1906,13 @@
     </row>
     <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D96" s="1">
         <v>444.90018559999999</v>
@@ -1917,13 +1920,13 @@
     </row>
     <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D97" s="1">
         <v>194.95070833</v>
@@ -1931,13 +1934,13 @@
     </row>
     <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D98" s="1">
         <v>459.73992199999998</v>
@@ -1945,13 +1948,13 @@
     </row>
     <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D99" s="1">
         <v>105.4291377</v>
@@ -1959,13 +1962,13 @@
     </row>
     <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D100" s="1">
         <v>112.9934461</v>
@@ -1973,13 +1976,13 @@
     </row>
     <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D101" s="1">
         <v>795.19149128900006</v>
@@ -1987,13 +1990,13 @@
     </row>
     <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C102" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D102" s="1">
         <v>418.20360959999999</v>
@@ -2001,13 +2004,13 @@
     </row>
     <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C103" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D103" s="1">
         <v>379.16809019999999</v>
@@ -2015,13 +2018,13 @@
     </row>
     <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D104" s="1">
         <v>641.44849673199997</v>
@@ -2029,13 +2032,13 @@
     </row>
     <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D105" s="1">
         <v>495.18126749999999</v>
@@ -2043,13 +2046,13 @@
     </row>
     <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D106" s="1">
         <v>41.564160000000001</v>
@@ -2057,13 +2060,13 @@
     </row>
     <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D107" s="1">
         <v>34.574301900000002</v>
@@ -2071,13 +2074,13 @@
     </row>
     <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D108" s="1">
         <v>17.764817699999998</v>
@@ -2085,13 +2088,13 @@
     </row>
     <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D109" s="1">
         <v>377.74047731399997</v>
@@ -2099,13 +2102,13 @@
     </row>
     <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D110" s="1">
         <v>47.814399999999999</v>
@@ -2113,13 +2116,13 @@
     </row>
     <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D111" s="1">
         <v>105.3778854</v>
@@ -2127,13 +2130,13 @@
     </row>
     <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D112" s="1">
         <v>45.304979000000003</v>
@@ -2141,13 +2144,13 @@
     </row>
     <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D113" s="1">
         <v>883.491355</v>
@@ -2155,13 +2158,13 @@
     </row>
     <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D114" s="1">
         <v>329.83531951999998</v>
@@ -2169,13 +2172,13 @@
     </row>
     <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D115" s="1">
         <v>56.4498575</v>
@@ -2183,13 +2186,13 @@
     </row>
     <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C116" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D116" s="1">
         <v>48.783651149999997</v>
@@ -2197,13 +2200,13 @@
     </row>
     <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C117" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D117" s="1">
         <v>53.905700000000003</v>
@@ -2211,13 +2214,13 @@
     </row>
     <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C118" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D118" s="1">
         <v>897.44555519999994</v>
@@ -2225,13 +2228,13 @@
     </row>
     <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C119" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D119" s="1">
         <v>567.41111581400003</v>
@@ -2239,13 +2242,13 @@
     </row>
     <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D120" s="1">
         <v>1219.89348</v>
@@ -2253,13 +2256,13 @@
     </row>
     <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" t="s">
         <v>13</v>
-      </c>
-      <c r="C121" t="s">
-        <v>11</v>
       </c>
       <c r="D121" s="1">
         <v>891.07434000000001</v>
@@ -2267,13 +2270,13 @@
     </row>
     <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D122" s="1">
         <v>386.46965</v>
@@ -2281,13 +2284,13 @@
     </row>
     <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D123" s="1">
         <v>376.3553</v>
@@ -2295,13 +2298,13 @@
     </row>
     <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D124" s="1">
         <v>258.97612800000002</v>
@@ -2309,13 +2312,13 @@
     </row>
     <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D125" s="1">
         <v>157.063692</v>
@@ -2323,13 +2326,13 @@
     </row>
     <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D126" s="1">
         <v>80.896979999999999</v>
@@ -2337,13 +2340,13 @@
     </row>
     <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D127" s="1">
         <v>66.592600000000004</v>
@@ -2351,13 +2354,13 @@
     </row>
     <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D128" s="1">
         <v>35.567970000000003</v>
@@ -2365,13 +2368,13 @@
     </row>
     <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D129" s="1">
         <v>32.722560000000001</v>
@@ -2379,13 +2382,13 @@
     </row>
     <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D130" s="1">
         <v>76.413469636000002</v>
@@ -2393,13 +2396,13 @@
     </row>
     <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B131" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D131" s="1">
         <v>51.984900000000003</v>
@@ -2407,13 +2410,13 @@
     </row>
     <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C132" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D132" s="1">
         <v>54.700949999999999</v>
@@ -2421,13 +2424,13 @@
     </row>
     <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B133" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C133" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D133" s="1">
         <v>43.162300000000002</v>
@@ -2435,13 +2438,13 @@
     </row>
     <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
+        <v>50</v>
+      </c>
+      <c r="B134" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" t="s">
         <v>48</v>
-      </c>
-      <c r="B134" t="s">
-        <v>15</v>
-      </c>
-      <c r="C134" t="s">
-        <v>46</v>
       </c>
       <c r="D134" s="1">
         <v>37.572000000000003</v>
@@ -2449,13 +2452,13 @@
     </row>
     <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B135" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D135" s="1">
         <v>26.318750000000001</v>
@@ -2463,13 +2466,13 @@
     </row>
     <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B136" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D136" s="1">
         <v>24.028199999999998</v>
@@ -2477,13 +2480,13 @@
     </row>
     <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C137" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D137" s="1">
         <v>21.36645</v>
@@ -2491,13 +2494,13 @@
     </row>
     <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B138" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D138" s="1">
         <v>17.355250000000002</v>
@@ -2505,13 +2508,13 @@
     </row>
     <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B139" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D139" s="1">
         <v>17.120100000000001</v>
@@ -2519,13 +2522,13 @@
     </row>
     <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B140" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D140" s="1">
         <v>16.202475</v>
@@ -2533,13 +2536,13 @@
     </row>
     <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D141" s="1">
         <v>13.5169</v>
@@ -2547,13 +2550,13 @@
     </row>
     <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B142" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C142" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D142" s="1">
         <v>8.3619000000000003</v>
@@ -2561,13 +2564,13 @@
     </row>
     <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B143" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D143" s="1">
         <v>2.3957999999999999</v>
@@ -2575,13 +2578,13 @@
     </row>
     <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B144" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C144" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D144" s="1">
         <v>1791.136023734</v>
@@ -2589,13 +2592,13 @@
     </row>
     <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C145" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D145" s="1">
         <v>691.42874749999999</v>
@@ -2603,13 +2606,13 @@
     </row>
     <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B146" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C146" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D146" s="1">
         <v>437.546178</v>
@@ -2617,13 +2620,13 @@
     </row>
     <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B147" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C147" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D147" s="1">
         <v>398.44944659999999</v>
@@ -2631,13 +2634,13 @@
     </row>
     <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C148" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D148" s="1">
         <v>85.158848000000006</v>
@@ -2645,13 +2648,13 @@
     </row>
     <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B149" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D149" s="1">
         <v>56.339108600000003</v>
@@ -2659,13 +2662,13 @@
     </row>
     <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B150" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C150" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D150" s="1">
         <v>50.207640599999998</v>
@@ -2673,13 +2676,13 @@
     </row>
     <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B151" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C151" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D151" s="1">
         <v>48.181075200000002</v>
@@ -2687,13 +2690,13 @@
     </row>
     <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B152" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C152" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D152" s="1">
         <v>48.151496999999999</v>
@@ -2701,13 +2704,13 @@
     </row>
     <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B153" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C153" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D153" s="1">
         <v>38.785400000000003</v>
@@ -2715,13 +2718,13 @@
     </row>
     <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B154" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C154" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D154" s="1">
         <v>33.768990000000002</v>
@@ -2729,13 +2732,13 @@
     </row>
     <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B155" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C155" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D155" s="1">
         <v>27.742000000000001</v>
@@ -2743,13 +2746,13 @@
     </row>
     <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B156" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C156" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D156" s="2">
         <v>26.166374399999999</v>
@@ -2757,13 +2760,13 @@
     </row>
     <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C157" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D157" s="1">
         <v>312.90250348900003</v>
@@ -2771,13 +2774,13 @@
     </row>
     <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D158" s="1">
         <v>537.23077231399998</v>
@@ -2785,13 +2788,13 @@
     </row>
     <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D159" s="1">
         <v>1.2738610640000001</v>
@@ -2799,13 +2802,13 @@
     </row>
     <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B160" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C160" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D160" s="1">
         <v>571.68737199999998</v>
@@ -2813,13 +2816,13 @@
     </row>
     <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B161" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D161" s="1">
         <v>1.2426057850000001</v>
@@ -2827,13 +2830,13 @@
     </row>
     <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B162" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D162" s="1">
         <v>81.770314499999998</v>
@@ -2841,13 +2844,13 @@
     </row>
     <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B163" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D163" s="1">
         <v>114.13664420000001</v>
@@ -2855,13 +2858,13 @@
     </row>
     <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D164" s="1">
         <v>74.028000000000006</v>
@@ -2869,13 +2872,13 @@
     </row>
     <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B165" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D165" s="1">
         <v>334.50573044999999</v>
@@ -2883,13 +2886,13 @@
     </row>
     <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B166" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C166" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D166" s="1">
         <v>82.876750000000001</v>
@@ -2897,13 +2900,13 @@
     </row>
     <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B167" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C167" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D167" s="1">
         <v>96.033543249999994</v>
@@ -2911,13 +2914,13 @@
     </row>
     <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B168" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C168" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D168" s="1">
         <v>619.63735652000003</v>
@@ -2925,13 +2928,13 @@
     </row>
     <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B169" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C169" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D169" s="1">
         <v>66.806430000000006</v>
@@ -2939,13 +2942,13 @@
     </row>
     <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B170" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C170" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D170" s="1">
         <v>62.841739349999997</v>
@@ -2953,13 +2956,13 @@
     </row>
     <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B171" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C171" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D171" s="1">
         <v>64.178100000000001</v>
@@ -2967,13 +2970,13 @@
     </row>
     <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B172" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C172" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D172" s="1">
         <v>462.98242733000001</v>
@@ -2981,24 +2984,24 @@
     </row>
     <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B173" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B174" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C174" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D174" s="1">
         <v>1.0325E-4</v>
@@ -3006,24 +3009,24 @@
     </row>
     <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B175" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C175" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B176" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C176" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D176" s="1">
         <v>1.1900000000000001E-4</v>
@@ -3031,24 +3034,24 @@
     </row>
     <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B177" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C177" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D178" s="1">
         <v>64.729280000000003</v>
@@ -3056,13 +3059,13 @@
     </row>
     <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B179" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D179" s="1">
         <v>4.1003119999999997</v>
@@ -3070,13 +3073,13 @@
     </row>
     <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B180" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C180" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D180" s="1">
         <v>7.8800173759999996</v>
@@ -3084,13 +3087,13 @@
     </row>
     <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B181" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C181" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D181" s="1">
         <v>57.4816</v>
@@ -3098,13 +3101,13 @@
     </row>
     <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B182" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C182" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D182" s="1">
         <v>3.4080650000000001E-3</v>
@@ -3112,13 +3115,13 @@
     </row>
     <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B183" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C183" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D183" s="1">
         <v>9.5435766019999999</v>
@@ -3126,13 +3129,13 @@
     </row>
     <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B184" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C184" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D184" s="1">
         <v>3.4080650000000001E-3</v>
@@ -3140,13 +3143,13 @@
     </row>
     <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B185" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D185" s="1">
         <v>127</v>
@@ -3154,13 +3157,13 @@
     </row>
     <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B186" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C186" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D186" s="1">
         <v>100</v>
@@ -3168,13 +3171,13 @@
     </row>
     <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B187" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C187" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D187" s="1">
         <v>113</v>
@@ -3182,13 +3185,13 @@
     </row>
     <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B188" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D188" s="1">
         <v>85</v>
@@ -3196,13 +3199,13 @@
     </row>
     <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B189" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C189" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D189" s="1">
         <v>173</v>
@@ -3210,13 +3213,13 @@
     </row>
     <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B190" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C190" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D190" s="1">
         <v>179</v>
@@ -3224,13 +3227,13 @@
     </row>
     <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B191" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D191" s="1">
         <v>240</v>
@@ -3238,13 +3241,13 @@
     </row>
     <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B192" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C192" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D192" s="1">
         <v>283</v>
@@ -3252,13 +3255,13 @@
     </row>
     <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B193" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C193" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D193" s="1">
         <v>285</v>
@@ -3266,13 +3269,13 @@
     </row>
     <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B194" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D194" s="1">
         <v>262</v>
@@ -3280,13 +3283,13 @@
     </row>
     <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B195" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C195" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D195" s="1">
         <v>47</v>
@@ -3294,13 +3297,13 @@
     </row>
     <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B196" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C196" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D196" s="1">
         <v>51</v>
@@ -3308,13 +3311,13 @@
     </row>
     <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B197" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D197" s="1">
         <v>3</v>
@@ -3322,13 +3325,13 @@
     </row>
     <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B198" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C198" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D198" s="1">
         <v>6</v>
@@ -3336,13 +3339,13 @@
     </row>
     <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B199" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C199" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D199" s="1">
         <v>5</v>
@@ -3353,10 +3356,10 @@
         <v>26</v>
       </c>
       <c r="B200" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D200" s="1">
         <v>463</v>
@@ -3367,10 +3370,10 @@
         <v>26</v>
       </c>
       <c r="B201" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C201" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D201" s="1">
         <v>326</v>
@@ -3381,10 +3384,10 @@
         <v>26</v>
       </c>
       <c r="B202" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C202" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D202" s="1">
         <v>287</v>
@@ -3392,13 +3395,13 @@
     </row>
     <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B203" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D203" s="1">
         <v>1198</v>
@@ -3406,13 +3409,13 @@
     </row>
     <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B204" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C204" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D204" s="1">
         <v>1047</v>
@@ -3420,13 +3423,13 @@
     </row>
     <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B205" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C205" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D205" s="1">
         <v>555</v>
@@ -3434,13 +3437,13 @@
     </row>
     <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B206" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D206" s="1">
         <v>488</v>
@@ -3448,13 +3451,13 @@
     </row>
     <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B207" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C207" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D207" s="1">
         <v>478</v>
@@ -3462,13 +3465,13 @@
     </row>
     <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B208" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C208" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D208" s="1">
         <v>275</v>
@@ -3476,13 +3479,13 @@
     </row>
     <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B209" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D209" s="1">
         <v>291.53755000000001</v>
@@ -3490,13 +3493,13 @@
     </row>
     <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B210" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D210" s="1">
         <v>97.599699999999999</v>
@@ -3504,13 +3507,13 @@
     </row>
     <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B211" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D211" s="1">
         <v>139.96039999999999</v>
@@ -3518,13 +3521,13 @@
     </row>
     <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B212" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D212" s="1">
         <v>126.0891627</v>
@@ -3532,55 +3535,55 @@
     </row>
     <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B213" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D213" s="1">
         <v>484.16045324999999</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B214" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E214" s="1">
         <v>97.860349999999997</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B215" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E215" s="1">
         <v>118.3644</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B216" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E216" s="1">
         <v>40.125</v>
@@ -3588,13 +3591,13 @@
     </row>
     <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B217" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D217" s="1">
         <v>-17.442687286000002</v>
@@ -3602,13 +3605,13 @@
     </row>
     <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B218" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C218" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D218" s="1">
         <v>319.48334</v>
@@ -3616,69 +3619,69 @@
     </row>
     <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B219" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C219" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D219" s="1">
         <v>1110.0100874</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B220" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C220" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E220" s="1">
         <v>131.24760000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B221" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C221" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E221" s="1">
         <v>77.801199999999994</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B222" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C222" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E222" s="1">
         <v>49.610999999999997</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B223" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C223" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E223" s="1">
         <v>36.58</v>
@@ -3686,13 +3689,13 @@
     </row>
     <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B224" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C224" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D224" s="1">
         <v>22.643851017999999</v>
@@ -3700,13 +3703,13 @@
     </row>
     <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B225" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C225" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D225" s="1">
         <v>147.13238000000001</v>
@@ -3714,13 +3717,13 @@
     </row>
     <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B226" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C226" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D226" s="1">
         <v>102.867975</v>
@@ -3728,13 +3731,13 @@
     </row>
     <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B227" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C227" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D227" s="1">
         <v>125.2624716</v>
@@ -3742,13 +3745,13 @@
     </row>
     <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B228" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C228" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D228" s="1">
         <v>129.71071259999999</v>
@@ -3756,13 +3759,13 @@
     </row>
     <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B229" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C229" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D229" s="1">
         <v>127.5998</v>
@@ -3770,69 +3773,69 @@
     </row>
     <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B230" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C230" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D230" s="1">
         <v>466.77496559999997</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B231" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C231" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E231" s="1">
         <v>270.72160000000002</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B232" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C232" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E232" s="1">
         <v>145.33860000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B233" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C233" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E233" s="1">
         <v>50.883000000000003</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B234" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C234" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="E234" s="1">
         <v>62.96705</v>
@@ -3840,13 +3843,13 @@
     </row>
     <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B235" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C235" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D235" s="1">
         <v>-33.634174170000001</v>
@@ -3854,13 +3857,13 @@
     </row>
     <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B236" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D236" s="1">
         <v>91.021986687999998</v>
@@ -3868,13 +3871,13 @@
     </row>
     <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B237" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C237" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D237" s="1">
         <v>66.466997524000007</v>
@@ -3882,24 +3885,150 @@
     </row>
     <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B238" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C238" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D238" s="1">
         <v>41.544733348999998</v>
       </c>
     </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>23</v>
+      </c>
+      <c r="B239" t="s">
+        <v>6</v>
+      </c>
+      <c r="C239" t="s">
+        <v>20</v>
+      </c>
+      <c r="D239" s="1">
+        <v>1935.6160052</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>23</v>
+      </c>
+      <c r="B240" t="s">
+        <v>6</v>
+      </c>
+      <c r="C240" t="s">
+        <v>19</v>
+      </c>
+      <c r="D240" s="1">
+        <v>1093.40625</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>23</v>
+      </c>
+      <c r="B241" t="s">
+        <v>6</v>
+      </c>
+      <c r="C241" t="s">
+        <v>35</v>
+      </c>
+      <c r="D241" s="1">
+        <v>936.03599999999994</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>23</v>
+      </c>
+      <c r="B242" t="s">
+        <v>6</v>
+      </c>
+      <c r="C242" t="s">
+        <v>21</v>
+      </c>
+      <c r="D242" s="1">
+        <v>870.293138</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>23</v>
+      </c>
+      <c r="B243" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243" t="s">
+        <v>37</v>
+      </c>
+      <c r="D243" s="1">
+        <v>703.93795499999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>23</v>
+      </c>
+      <c r="B244" t="s">
+        <v>6</v>
+      </c>
+      <c r="C244" t="s">
+        <v>75</v>
+      </c>
+      <c r="D244" s="1">
+        <v>453.33</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>23</v>
+      </c>
+      <c r="B245" t="s">
+        <v>6</v>
+      </c>
+      <c r="C245" t="s">
+        <v>26</v>
+      </c>
+      <c r="D245" s="1">
+        <v>490.97399999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>23</v>
+      </c>
+      <c r="B246" t="s">
+        <v>6</v>
+      </c>
+      <c r="C246" t="s">
+        <v>36</v>
+      </c>
+      <c r="D246" s="1">
+        <v>465.35771999999997</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>23</v>
+      </c>
+      <c r="B247" t="s">
+        <v>6</v>
+      </c>
+      <c r="C247" t="s">
+        <v>25</v>
+      </c>
+      <c r="D247" s="1">
+        <v>2569.0349262</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E238" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+    <filterColumn colId="0">
+      <filters>
+        <filter val="VIX"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Prop book.xlsx
+++ b/Prop book.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dragoncapitalvn-my.sharepoint.com/personal/thaodien_dragoncapital_com/Documents/Documents/GitHub/Project-broker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="791" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8470B1FE-C6EA-4435-B175-1CB41E1EE88D}"/>
+  <xr:revisionPtr revIDLastSave="802" documentId="11_F25DC773A252ABDACC104898111F6A4C5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A9A1BC0-B75F-41B8-A29C-011C35084F24}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28905" yWindow="1935" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$238</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$250</definedName>
   </definedNames>
   <calcPr calcId="191028" iterate="1"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="77">
   <si>
     <t>Broker</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>PC1</t>
+  </si>
+  <si>
+    <t>Other unlisted</t>
   </si>
 </sst>
 </file>
@@ -589,10 +592,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E247"/>
+  <dimension ref="A1:E250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J242" sqref="J242"/>
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1538,7 +1541,7 @@
         <v>462.96722006800002</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -1594,7 +1597,7 @@
         <v>133.6666776649999</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -3897,7 +3900,7 @@
         <v>41.544733348999998</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>23</v>
       </c>
@@ -3911,7 +3914,7 @@
         <v>1935.6160052</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>23</v>
       </c>
@@ -3925,7 +3928,7 @@
         <v>1093.40625</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>23</v>
       </c>
@@ -3939,7 +3942,7 @@
         <v>936.03599999999994</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>23</v>
       </c>
@@ -3953,7 +3956,7 @@
         <v>870.293138</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>23</v>
       </c>
@@ -3967,7 +3970,7 @@
         <v>703.93795499999999</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>23</v>
       </c>
@@ -3981,7 +3984,7 @@
         <v>453.33</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>23</v>
       </c>
@@ -3995,7 +3998,7 @@
         <v>490.97399999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>23</v>
       </c>
@@ -4009,7 +4012,7 @@
         <v>465.35771999999997</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>23</v>
       </c>
@@ -4023,11 +4026,58 @@
         <v>2569.0349262</v>
       </c>
     </row>
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>23</v>
+      </c>
+      <c r="B248" t="s">
+        <v>6</v>
+      </c>
+      <c r="C248" t="s">
+        <v>38</v>
+      </c>
+      <c r="D248" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>23</v>
+      </c>
+      <c r="B249" t="s">
+        <v>6</v>
+      </c>
+      <c r="C249" t="s">
+        <v>39</v>
+      </c>
+      <c r="D249" s="1">
+        <v>959.69100000000003</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>23</v>
+      </c>
+      <c r="B250" t="s">
+        <v>6</v>
+      </c>
+      <c r="C250" t="s">
+        <v>76</v>
+      </c>
+      <c r="D250" s="1">
+        <v>284.44299999999998</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E238" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:E250" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="VIX"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="4Q24"/>
       </filters>
     </filterColumn>
   </autoFilter>
